--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-16T18:02:33+00:00</t>
+    <t>2022-02-16T18:21:09+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-16T18:21:09+00:00</t>
+    <t>2022-02-17T07:42:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-17T07:42:42+00:00</t>
+    <t>2022-02-17T14:13:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-17T14:13:17+00:00</t>
+    <t>2022-02-22T09:12:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T09:12:17+00:00</t>
+    <t>2022-02-22T11:48:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T11:48:03+00:00</t>
+    <t>2022-02-22T14:48:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T14:48:55+00:00</t>
+    <t>2022-02-22T16:32:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T16:32:49+00:00</t>
+    <t>2022-02-22T16:56:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T16:56:55+00:00</t>
+    <t>2022-02-22T17:53:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -4927,7 +4927,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31">
+    <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
         <v>215</v>
       </c>
@@ -4943,7 +4943,7 @@
         <v>73</v>
       </c>
       <c r="G31" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>74</v>
@@ -6869,7 +6869,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="49">
+    <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
         <v>289</v>
       </c>
@@ -6887,7 +6887,7 @@
         <v>73</v>
       </c>
       <c r="G49" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H49" t="s" s="2">
         <v>74</v>
@@ -7849,7 +7849,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="58">
+    <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
         <v>298</v>
       </c>
@@ -7865,7 +7865,7 @@
         <v>73</v>
       </c>
       <c r="G58" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H58" t="s" s="2">
         <v>74</v>
@@ -9773,7 +9773,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="76">
+    <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
         <v>357</v>
       </c>
@@ -9791,7 +9791,7 @@
         <v>73</v>
       </c>
       <c r="G76" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H76" t="s" s="2">
         <v>74</v>
@@ -12141,7 +12141,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="98">
+    <row r="98" hidden="true">
       <c r="A98" t="s" s="2">
         <v>402</v>
       </c>
@@ -12159,7 +12159,7 @@
         <v>73</v>
       </c>
       <c r="G98" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H98" t="s" s="2">
         <v>74</v>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-22T17:53:34+00:00</t>
+    <t>2022-02-24T10:57:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-24T10:57:23+00:00</t>
+    <t>2022-02-24T14:55:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -9,14 +9,11 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AL$113</definedName>
-  </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3864" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3695" uniqueCount="372">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-02-24T14:55:32+00:00</t>
+    <t>2022-03-17T13:40:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -463,20 +460,7 @@
     <t>An identifier for the administrable product.</t>
   </si>
   <si>
-    <t xml:space="preserve">value:system}
-</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
     <t>n/a</t>
-  </si>
-  <si>
-    <t>spor</t>
-  </si>
-  <si>
-    <t>SPOR (Europe)</t>
   </si>
   <si>
     <t>AdministrableProductDefinition.identifier.id</t>
@@ -508,6 +492,9 @@
     <t>Extensions are always sliced by (at least) url</t>
   </si>
   <si>
+    <t>open</t>
+  </si>
+  <si>
     <t>Element.extension</t>
   </si>
   <si>
@@ -524,9 +511,6 @@
   </si>
   <si>
     <t>Allows the appropriate identifier for a particular context of use to be selected from among a set of identifiers.</t>
-  </si>
-  <si>
-    <t>official</t>
   </si>
   <si>
     <t>required</t>
@@ -584,12 +568,12 @@
     <t>There are many sets  of identifiers.  To perform matching of two identifiers, we need to know what set we're dealing with. The system identifies a particular set of unique identifiers.</t>
   </si>
   <si>
-    <t>https://spor.ema.europa.eu/pmswi</t>
-  </si>
-  <si>
     <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
+    <t>http://hl7.eu/fhir/ig/gravitate-health/ValueSet/admProductIdSystems</t>
+  </si>
+  <si>
     <t>Identifier.system</t>
   </si>
   <si>
@@ -599,7 +583,7 @@
     <t>AdministrableProductDefinition.identifier.value</t>
   </si>
   <si>
-    <t>Administrable Product ID</t>
+    <t>The value that is unique</t>
   </si>
   <si>
     <t>The portion of the identifier typically relevant to the user and which is unique within the context of the system.</t>
@@ -658,19 +642,10 @@
     <t>II.assigningAuthorityName but note that this is an improper use by the definition of the field.  Also Role.scoper</t>
   </si>
   <si>
-    <t>phpid</t>
-  </si>
-  <si>
-    <t>IDMP PhPID</t>
-  </si>
-  <si>
-    <t>https://www.who-umc.org/phpid</t>
-  </si>
-  <si>
     <t>AdministrableProductDefinition.status</t>
   </si>
   <si>
-    <t>draft | active | retired | unknown</t>
+    <t>draft | active | retired |unknown</t>
   </si>
   <si>
     <t>The status of this administrable product. Enables tracking the life-cycle of the content.</t>
@@ -710,6 +685,15 @@
     <t>The dose form of the final product after necessary reconstitution or processing. Contrasts to the manufactured dose form (see ManufacturedItemDefinition). If the manufactured form was 'powder for solution for injection', the administrable dose form could be 'solution for injection' (once mixed with another item having manufactured form 'solvent for solution for injection').</t>
   </si>
   <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="https://spor.ema.europa.eu/rmswi"/&gt;
+    &lt;code value="100000073646"/&gt;
+    &lt;display value="Oral solution"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
     <t>example</t>
   </si>
   <si>
@@ -722,13 +706,278 @@
     <t>Pharmaceutical Product.Administrable Dose Form</t>
   </si>
   <si>
-    <t>AdministrableProductDefinition.administrableDoseForm.id</t>
-  </si>
-  <si>
-    <t>AdministrableProductDefinition.administrableDoseForm.extension</t>
-  </si>
-  <si>
-    <t>AdministrableProductDefinition.administrableDoseForm.coding</t>
+    <t>AdministrableProductDefinition.unitOfPresentation</t>
+  </si>
+  <si>
+    <t>The presentation type in which this item is given to a patient. e.g. for a spray - 'puff'</t>
+  </si>
+  <si>
+    <t>The presentation type in which this item is given to a patient. e.g. for a spray - 'puff' (as in 'contains 100 mcg per puff'), or for a liquid - 'vial' (as in 'contains 5 ml per vial').</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="https://spor.ema.europa.eu/rmswi"/&gt;
+    &lt;code value="200000002145"/&gt;
+    &lt;display value="Spoonful"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>The presentation type in which an administrable medicinal product is given to a patient.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/unit-of-presentation</t>
+  </si>
+  <si>
+    <t>Pharmaceutical Product.Unit of Presentation</t>
+  </si>
+  <si>
+    <t>AdministrableProductDefinition.producedFrom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/ManufacturedItemDefinition-uv-epi)
+</t>
+  </si>
+  <si>
+    <t>Indicates the specific manufactured items that are part of the 'formOf' product that are used in the preparation of this specific administrable form</t>
+  </si>
+  <si>
+    <t>Indicates the specific manufactured items that are part of the 'formOf' product that are used in the preparation of this specific administrable form.  In some cases, an administrable form might use all of the items from the overall product (or there might only be one item), while in other cases, an administrable form might use only a subset of the items available in the overall product.  For example, an administrable form might involve combining a liquid and a powder available as part of an overall product, but not involve applying the also supplied cream.</t>
+  </si>
+  <si>
+    <t>n/a (this is the link from Pharmaceutical Product to the Manufactured Item(s))</t>
+  </si>
+  <si>
+    <t>AdministrableProductDefinition.ingredient</t>
+  </si>
+  <si>
+    <t>The ingredients of this administrable medicinal product. This is only needed if the ingredients are not specified either using ManufacturedItemDefiniton, or using by incoming references from the Ingredient resource</t>
+  </si>
+  <si>
+    <t>The ingredients of this administrable medicinal product. This is only needed if the ingredients are not specified either using ManufacturedItemDefiniton (via AdministrableProductDefinition.producedFrom) to state which component items are used to make this, or using by incoming references from the Ingredient resource, to state in detail which substances exist within this. This element allows a basic coded ingredient to be used.</t>
+  </si>
+  <si>
+    <t>This value set includes all substance codes from SNOMED CT - provided as an exemplar value set.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/substance-codes</t>
+  </si>
+  <si>
+    <t>Pharmaceutical Product.Ingredient (see also FHIR Ingredient resource)</t>
+  </si>
+  <si>
+    <t>AdministrableProductDefinition.device</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reference(DeviceDefinition)
+</t>
+  </si>
+  <si>
+    <t>A device that is integral to the medicinal product, in effect being considered as an "ingredient" of the medicinal product</t>
+  </si>
+  <si>
+    <t>A device that is integral to the medicinal product, in effect being considered as an "ingredient" of the medicinal product. This is not intended for devices that are just co-packaged.</t>
+  </si>
+  <si>
+    <t>Pharmaceutical Product.Device</t>
+  </si>
+  <si>
+    <t>AdministrableProductDefinition.property</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BackboneElement
+</t>
+  </si>
+  <si>
+    <t>Characteristics e.g. a product's onset of action</t>
+  </si>
+  <si>
+    <t>Characteristics e.g. a product's onset of action.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:type}
+</t>
+  </si>
+  <si>
+    <t>Pharmaceutical Product Characteristics</t>
+  </si>
+  <si>
+    <t>AdministrableProductDefinition.property.id</t>
+  </si>
+  <si>
+    <t>AdministrableProductDefinition.property.extension</t>
+  </si>
+  <si>
+    <t>AdministrableProductDefinition.property.modifierExtension</t>
+  </si>
+  <si>
+    <t>extensions
+user contentmodifiers</t>
+  </si>
+  <si>
+    <t>Extensions that cannot be ignored even if unrecognized</t>
+  </si>
+  <si>
+    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
+Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
+  </si>
+  <si>
+    <t>BackboneElement.modifierExtension</t>
+  </si>
+  <si>
+    <t>AdministrableProductDefinition.property.type</t>
+  </si>
+  <si>
+    <t>A code expressing the type of characteristic</t>
+  </si>
+  <si>
+    <t>A code expressing the type of characteristic.</t>
+  </si>
+  <si>
+    <t>This value set includes all observable entity codes from SNOMED CT - provided as an exemplar value set.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/product-characteristic-codes</t>
+  </si>
+  <si>
+    <t>Pharmaceutical Product Characteristics.Code System (not a one to one map, the resource is more capable)</t>
+  </si>
+  <si>
+    <t>AdministrableProductDefinition.property.value[x]</t>
+  </si>
+  <si>
+    <t>CodeableConcept
+QuantitydatebooleanAttachment</t>
+  </si>
+  <si>
+    <t>A value for the characteristic</t>
+  </si>
+  <si>
+    <t>A value for the characteristic.</t>
+  </si>
+  <si>
+    <t>Pharmaceutical Product Characteristics.Value (not a one to one map, the resource is more capable)</t>
+  </si>
+  <si>
+    <t>AdministrableProductDefinition.property.status</t>
+  </si>
+  <si>
+    <t>The status of characteristic e.g. assigned or pending</t>
+  </si>
+  <si>
+    <t>The status of characteristic e.g. assigned or pending.</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/publication-status|4.6.0</t>
+  </si>
+  <si>
+    <t>Pharmaceutical Product Characteristics.Status</t>
+  </si>
+  <si>
+    <t>colour</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/medicationknowledge-characteristic"/&gt;
+    &lt;code value="color"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>flavour</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://hl7.eu/fhir/ig/gravitate-health/CodeSystem/gravitate"/&gt;
+    &lt;code value="flavor"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>score</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/medicationknowledge-characteristic"/&gt;
+    &lt;code value="scoring"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>shape</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/medicationknowledge-characteristic"/&gt;
+    &lt;code value="shape"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/medicationknowledge-characteristic"/&gt;
+    &lt;code value="size"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quantity
+</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/medicationknowledge-characteristic"/&gt;
+    &lt;code value="image"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Attachment
+</t>
+  </si>
+  <si>
+    <t>imprint</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/medicationknowledge-characteristic"/&gt;
+    &lt;code value="imprintcd"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
+    <t>CodeableConcept
+Attachment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">type:$this}
+</t>
+  </si>
+  <si>
+    <t>valueCodeableConcept</t>
+  </si>
+  <si>
+    <t>AdministrableProductDefinition.property.value[x].id</t>
+  </si>
+  <si>
+    <t>AdministrableProductDefinition.property.value[x].extension</t>
+  </si>
+  <si>
+    <t>AdministrableProductDefinition.property.value[x].coding</t>
   </si>
   <si>
     <t xml:space="preserve">Coding
@@ -753,119 +1002,7 @@
     <t>union(., ./translation)</t>
   </si>
   <si>
-    <t>EMA - SPOR Referential</t>
-  </si>
-  <si>
-    <t>AdministrableProductDefinition.administrableDoseForm.coding.id</t>
-  </si>
-  <si>
-    <t>AdministrableProductDefinition.administrableDoseForm.coding.extension</t>
-  </si>
-  <si>
-    <t>AdministrableProductDefinition.administrableDoseForm.coding.system</t>
-  </si>
-  <si>
-    <t>Identity of the terminology system</t>
-  </si>
-  <si>
-    <t>The identification of the code system that defines the meaning of the symbol in the code.</t>
-  </si>
-  <si>
-    <t>The URI may be an OID (urn:oid:...) or a UUID (urn:uuid:...).  OIDs and UUIDs SHALL be references to the HL7 OID registry. Otherwise, the URI should come from HL7's list of FHIR defined special URIs or it should reference to some definition that establishes the system clearly and unambiguously.</t>
-  </si>
-  <si>
-    <t>Need to be unambiguous about the source of the definition of the symbol.</t>
-  </si>
-  <si>
-    <t>https://spor.ema.europa.eu</t>
-  </si>
-  <si>
-    <t>Coding.system</t>
-  </si>
-  <si>
-    <t>./codeSystem</t>
-  </si>
-  <si>
-    <t>AdministrableProductDefinition.administrableDoseForm.coding.version</t>
-  </si>
-  <si>
-    <t>Version of the system - if relevant</t>
-  </si>
-  <si>
-    <t>The version of the code system which was used when choosing this code. Note that a well-maintained code system does not need the version reported, because the meaning of codes is consistent across versions. However this cannot consistently be assured, and when the meaning is not guaranteed to be consistent, the version SHOULD be exchanged.</t>
-  </si>
-  <si>
-    <t>Where the terminology does not clearly define what string should be used to identify code system versions, the recommendation is to use the date (expressed in FHIR date format) on which that version was officially published as the version date.</t>
-  </si>
-  <si>
-    <t>Coding.version</t>
-  </si>
-  <si>
-    <t>./codeSystemVersion</t>
-  </si>
-  <si>
-    <t>AdministrableProductDefinition.administrableDoseForm.coding.code</t>
-  </si>
-  <si>
-    <t>Symbol in syntax defined by the system</t>
-  </si>
-  <si>
-    <t>A symbol in syntax defined by the system. The symbol may be a predefined code or an expression in a syntax defined by the coding system (e.g. post-coordination).</t>
-  </si>
-  <si>
-    <t>Need to refer to a particular code in the system.</t>
-  </si>
-  <si>
-    <t>Coding.code</t>
-  </si>
-  <si>
-    <t>./code</t>
-  </si>
-  <si>
-    <t>AdministrableProductDefinition.administrableDoseForm.coding.display</t>
-  </si>
-  <si>
-    <t>Representation defined by the system</t>
-  </si>
-  <si>
-    <t>A representation of the meaning of the code in the system, following the rules of the system.</t>
-  </si>
-  <si>
-    <t>Need to be able to carry a human-readable meaning of the code for readers that do not know  the system.</t>
-  </si>
-  <si>
-    <t>Coding.display</t>
-  </si>
-  <si>
-    <t>CV.displayName</t>
-  </si>
-  <si>
-    <t>AdministrableProductDefinition.administrableDoseForm.coding.userSelected</t>
-  </si>
-  <si>
-    <t xml:space="preserve">boolean
-</t>
-  </si>
-  <si>
-    <t>If this coding was chosen directly by the user</t>
-  </si>
-  <si>
-    <t>Indicates that this coding was chosen by a user directly - e.g. off a pick list of available items (codes or displays).</t>
-  </si>
-  <si>
-    <t>Amongst a set of alternatives, a directly chosen code is the most appropriate starting point for new translations. There is some ambiguity about what exactly 'directly chosen' implies, and trading partner agreement may be needed to clarify the use of this element and its consequences more completely.</t>
-  </si>
-  <si>
-    <t>This has been identified as a clinical safety criterium - that this exact system/code pair was chosen explicitly, rather than inferred by the system based on some rules or language processing.</t>
-  </si>
-  <si>
-    <t>Coding.userSelected</t>
-  </si>
-  <si>
-    <t>CD.codingRationale</t>
-  </si>
-  <si>
-    <t>AdministrableProductDefinition.administrableDoseForm.text</t>
+    <t>AdministrableProductDefinition.property.value[x].text</t>
   </si>
   <si>
     <t>Plain text representation of the concept</t>
@@ -886,195 +1023,6 @@
     <t>./originalText[mediaType/code="text/plain"]/data</t>
   </si>
   <si>
-    <t>AdministrableProductDefinition.unitOfPresentation</t>
-  </si>
-  <si>
-    <t>The presentation type in which this item is given to a patient. e.g. for a spray - 'puff'</t>
-  </si>
-  <si>
-    <t>The presentation type in which this item is given to a patient. e.g. for a spray - 'puff' (as in 'contains 100 mcg per puff'), or for a liquid - 'vial' (as in 'contains 5 ml per vial').</t>
-  </si>
-  <si>
-    <t>The presentation type in which an administrable medicinal product is given to a patient.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/unit-of-presentation</t>
-  </si>
-  <si>
-    <t>Pharmaceutical Product.Unit of Presentation</t>
-  </si>
-  <si>
-    <t>AdministrableProductDefinition.unitOfPresentation.id</t>
-  </si>
-  <si>
-    <t>AdministrableProductDefinition.unitOfPresentation.extension</t>
-  </si>
-  <si>
-    <t>AdministrableProductDefinition.unitOfPresentation.coding</t>
-  </si>
-  <si>
-    <t>AdministrableProductDefinition.unitOfPresentation.coding.id</t>
-  </si>
-  <si>
-    <t>AdministrableProductDefinition.unitOfPresentation.coding.extension</t>
-  </si>
-  <si>
-    <t>AdministrableProductDefinition.unitOfPresentation.coding.system</t>
-  </si>
-  <si>
-    <t>AdministrableProductDefinition.unitOfPresentation.coding.version</t>
-  </si>
-  <si>
-    <t>AdministrableProductDefinition.unitOfPresentation.coding.code</t>
-  </si>
-  <si>
-    <t>AdministrableProductDefinition.unitOfPresentation.coding.display</t>
-  </si>
-  <si>
-    <t>AdministrableProductDefinition.unitOfPresentation.coding.userSelected</t>
-  </si>
-  <si>
-    <t>AdministrableProductDefinition.unitOfPresentation.text</t>
-  </si>
-  <si>
-    <t>AdministrableProductDefinition.producedFrom</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/ManufacturedItemDefinition-uv-epi)
-</t>
-  </si>
-  <si>
-    <t>Indicates the specific manufactured items that are part of the 'formOf' product that are used in the preparation of this specific administrable form</t>
-  </si>
-  <si>
-    <t>Indicates the specific manufactured items that are part of the 'formOf' product that are used in the preparation of this specific administrable form.  In some cases, an administrable form might use all of the items from the overall product (or there might only be one item), while in other cases, an administrable form might use only a subset of the items available in the overall product.  For example, an administrable form might involve combining a liquid and a powder available as part of an overall product, but not involve applying the also supplied cream.</t>
-  </si>
-  <si>
-    <t>n/a (this is the link from Pharmaceutical Product to the Manufactured Item(s))</t>
-  </si>
-  <si>
-    <t>AdministrableProductDefinition.ingredient</t>
-  </si>
-  <si>
-    <t>The ingredients of this administrable medicinal product. This is only needed if the ingredients are not specified either using ManufacturedItemDefiniton, or using by incoming references from the Ingredient resource</t>
-  </si>
-  <si>
-    <t>The ingredients of this administrable medicinal product. This is only needed if the ingredients are not specified either using ManufacturedItemDefiniton (via AdministrableProductDefinition.producedFrom) to state which component items are used to make this, or using by incoming references from the Ingredient resource, to state in detail which substances exist within this. This element allows a basic coded ingredient to be used.</t>
-  </si>
-  <si>
-    <t>This value set includes all substance codes from SNOMED CT - provided as an exemplar value set.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/substance-codes</t>
-  </si>
-  <si>
-    <t>Pharmaceutical Product.Ingredient (see also FHIR Ingredient resource)</t>
-  </si>
-  <si>
-    <t>AdministrableProductDefinition.device</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(DeviceDefinition)
-</t>
-  </si>
-  <si>
-    <t>A device that is integral to the medicinal product, in effect being considered as an "ingredient" of the medicinal product</t>
-  </si>
-  <si>
-    <t>A device that is integral to the medicinal product, in effect being considered as an "ingredient" of the medicinal product. This is not intended for devices that are just co-packaged.</t>
-  </si>
-  <si>
-    <t>Pharmaceutical Product.Device</t>
-  </si>
-  <si>
-    <t>AdministrableProductDefinition.property</t>
-  </si>
-  <si>
-    <t xml:space="preserve">BackboneElement
-</t>
-  </si>
-  <si>
-    <t>Characteristics e.g. a product's onset of action</t>
-  </si>
-  <si>
-    <t>Characteristics e.g. a product's onset of action.</t>
-  </si>
-  <si>
-    <t>Pharmaceutical Product Characteristics</t>
-  </si>
-  <si>
-    <t>AdministrableProductDefinition.property.id</t>
-  </si>
-  <si>
-    <t>AdministrableProductDefinition.property.extension</t>
-  </si>
-  <si>
-    <t>AdministrableProductDefinition.property.modifierExtension</t>
-  </si>
-  <si>
-    <t>extensions
-user contentmodifiers</t>
-  </si>
-  <si>
-    <t>Extensions that cannot be ignored even if unrecognized</t>
-  </si>
-  <si>
-    <t>May be used to represent additional information that is not part of the basic definition of the element and that modifies the understanding of the element in which it is contained and/or the understanding of the containing element's descendants. Usually modifier elements provide negation or qualification. To make the use of extensions safe and manageable, there is a strict set of governance applied to the definition and use of extensions. Though any implementer can define an extension, there is a set of requirements that SHALL be met as part of the definition of the extension. Applications processing a resource are required to check for modifier extensions.
-Modifier extensions SHALL NOT change the meaning of any elements on Resource or DomainResource (including cannot change the meaning of modifierExtension itself).</t>
-  </si>
-  <si>
-    <t>BackboneElement.modifierExtension</t>
-  </si>
-  <si>
-    <t>AdministrableProductDefinition.property.type</t>
-  </si>
-  <si>
-    <t>A code expressing the type of characteristic</t>
-  </si>
-  <si>
-    <t>A code expressing the type of characteristic.</t>
-  </si>
-  <si>
-    <t>This value set includes all observable entity codes from SNOMED CT - provided as an exemplar value set.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/product-characteristic-codes</t>
-  </si>
-  <si>
-    <t>Pharmaceutical Product Characteristics.Code System (not a one to one map, the resource is more capable)</t>
-  </si>
-  <si>
-    <t>AdministrableProductDefinition.property.value[x]</t>
-  </si>
-  <si>
-    <t>CodeableConcept
-QuantitydatebooleanAttachment</t>
-  </si>
-  <si>
-    <t>A value for the characteristic</t>
-  </si>
-  <si>
-    <t>A value for the characteristic.</t>
-  </si>
-  <si>
-    <t>Pharmaceutical Product Characteristics.Value (not a one to one map, the resource is more capable)</t>
-  </si>
-  <si>
-    <t>AdministrableProductDefinition.property.status</t>
-  </si>
-  <si>
-    <t>The status of characteristic e.g. assigned or pending</t>
-  </si>
-  <si>
-    <t>The status of characteristic e.g. assigned or pending.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/publication-status|4.6.0</t>
-  </si>
-  <si>
-    <t>Pharmaceutical Product Characteristics.Status</t>
-  </si>
-  <si>
     <t>AdministrableProductDefinition.routeOfAdministration</t>
   </si>
   <si>
@@ -1084,6 +1032,15 @@
     <t>The path by which the product is taken into or makes contact with the body. In some regions this is referred to as the licenced or approved route. RouteOfAdministration cannot be used when the 'formOf' product already uses MedicinalProductDefinition.route (and vice versa).</t>
   </si>
   <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="https://spor.ema.europa.eu/rmswi"/&gt;
+    &lt;code value="100000073578"/&gt;
+    &lt;display value="Gingival use"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
     <t>Pharmaceutical Product.Route of Administration</t>
   </si>
   <si>
@@ -1114,44 +1071,7 @@
     <t>Route of Administration.Route of Administration</t>
   </si>
   <si>
-    <t>AdministrableProductDefinition.routeOfAdministration.code.id</t>
-  </si>
-  <si>
-    <t>AdministrableProductDefinition.routeOfAdministration.code.extension</t>
-  </si>
-  <si>
-    <t>AdministrableProductDefinition.routeOfAdministration.code.coding</t>
-  </si>
-  <si>
-    <t>AdministrableProductDefinition.routeOfAdministration.code.coding.id</t>
-  </si>
-  <si>
-    <t>AdministrableProductDefinition.routeOfAdministration.code.coding.extension</t>
-  </si>
-  <si>
-    <t>AdministrableProductDefinition.routeOfAdministration.code.coding.system</t>
-  </si>
-  <si>
-    <t>AdministrableProductDefinition.routeOfAdministration.code.coding.version</t>
-  </si>
-  <si>
-    <t>AdministrableProductDefinition.routeOfAdministration.code.coding.code</t>
-  </si>
-  <si>
-    <t>AdministrableProductDefinition.routeOfAdministration.code.coding.display</t>
-  </si>
-  <si>
-    <t>AdministrableProductDefinition.routeOfAdministration.code.coding.userSelected</t>
-  </si>
-  <si>
-    <t>AdministrableProductDefinition.routeOfAdministration.code.text</t>
-  </si>
-  <si>
     <t>AdministrableProductDefinition.routeOfAdministration.firstDose</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Quantity
-</t>
   </si>
   <si>
     <t>The first dose (dose quantity) administered can be specified for the product</t>
@@ -1250,39 +1170,6 @@
   </si>
   <si>
     <t>http://hl7.org/fhir/ValueSet/target-species</t>
-  </si>
-  <si>
-    <t>AdministrableProductDefinition.routeOfAdministration.targetSpecies.code.id</t>
-  </si>
-  <si>
-    <t>AdministrableProductDefinition.routeOfAdministration.targetSpecies.code.extension</t>
-  </si>
-  <si>
-    <t>AdministrableProductDefinition.routeOfAdministration.targetSpecies.code.coding</t>
-  </si>
-  <si>
-    <t>AdministrableProductDefinition.routeOfAdministration.targetSpecies.code.coding.id</t>
-  </si>
-  <si>
-    <t>AdministrableProductDefinition.routeOfAdministration.targetSpecies.code.coding.extension</t>
-  </si>
-  <si>
-    <t>AdministrableProductDefinition.routeOfAdministration.targetSpecies.code.coding.system</t>
-  </si>
-  <si>
-    <t>AdministrableProductDefinition.routeOfAdministration.targetSpecies.code.coding.version</t>
-  </si>
-  <si>
-    <t>AdministrableProductDefinition.routeOfAdministration.targetSpecies.code.coding.code</t>
-  </si>
-  <si>
-    <t>AdministrableProductDefinition.routeOfAdministration.targetSpecies.code.coding.display</t>
-  </si>
-  <si>
-    <t>AdministrableProductDefinition.routeOfAdministration.targetSpecies.code.coding.userSelected</t>
-  </si>
-  <si>
-    <t>AdministrableProductDefinition.routeOfAdministration.targetSpecies.code.text</t>
   </si>
   <si>
     <t>AdministrableProductDefinition.routeOfAdministration.targetSpecies.withdrawalPeriod</t>
@@ -1459,21 +1346,6 @@
       <alignment vertical="top" wrapText="true"/>
     </xf>
   </cellXfs>
-  <dxfs count="2">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor indexed="22"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color indexed="22"/>
-        <i val="true"/>
-      </font>
-    </dxf>
-  </dxfs>
 </styleSheet>
 </file>
 
@@ -1640,7 +1512,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AL113"/>
+  <dimension ref="A1:AL109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -1650,7 +1522,7 @@
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="101.46484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="12.65625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.25" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
     <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
@@ -1673,7 +1545,7 @@
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="110.578125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.2421875" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="63.78125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
@@ -1805,7 +1677,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="2" hidden="true">
+    <row r="2">
       <c r="A2" t="s" s="2">
         <v>26</v>
       </c>
@@ -1911,7 +1783,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="3" hidden="true">
+    <row r="3">
       <c r="A3" t="s" s="2">
         <v>81</v>
       </c>
@@ -2019,7 +1891,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" hidden="true">
+    <row r="4">
       <c r="A4" t="s" s="2">
         <v>89</v>
       </c>
@@ -2125,7 +1997,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="5" hidden="true">
+    <row r="5">
       <c r="A5" t="s" s="2">
         <v>95</v>
       </c>
@@ -2233,7 +2105,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="6" hidden="true">
+    <row r="6">
       <c r="A6" t="s" s="2">
         <v>101</v>
       </c>
@@ -2341,7 +2213,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>110</v>
       </c>
@@ -2449,7 +2321,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="8" hidden="true">
+    <row r="8">
       <c r="A8" t="s" s="2">
         <v>118</v>
       </c>
@@ -2557,7 +2429,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="9" hidden="true">
+    <row r="9">
       <c r="A9" t="s" s="2">
         <v>126</v>
       </c>
@@ -2665,7 +2537,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="10" hidden="true">
+    <row r="10">
       <c r="A10" t="s" s="2">
         <v>134</v>
       </c>
@@ -2775,7 +2647,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="11" hidden="true">
+    <row r="11">
       <c r="A11" t="s" s="2">
         <v>139</v>
       </c>
@@ -2845,14 +2717,16 @@
         <v>74</v>
       </c>
       <c r="AA11" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AB11" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AC11" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD11" t="s" s="2">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="AE11" t="s" s="2">
         <v>139</v>
@@ -2870,7 +2744,7 @@
         <v>94</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>74</v>
@@ -2879,13 +2753,11 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" hidden="true">
+    <row r="12">
       <c r="A12" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="B12" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="B12" s="2"/>
       <c r="C12" t="s" s="2">
         <v>74</v>
       </c>
@@ -2894,7 +2766,7 @@
         <v>72</v>
       </c>
       <c r="F12" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G12" t="s" s="2">
         <v>74</v>
@@ -2903,13 +2775,13 @@
         <v>74</v>
       </c>
       <c r="I12" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J12" t="s" s="2">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="L12" t="s" s="2">
         <v>147</v>
@@ -2963,44 +2835,44 @@
         <v>74</v>
       </c>
       <c r="AE12" t="s" s="2">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="AF12" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG12" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AH12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI12" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>74</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="13" hidden="true">
+    <row r="13">
       <c r="A13" t="s" s="2">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="B13" s="2"/>
       <c r="C13" t="s" s="2">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F13" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G13" t="s" s="2">
         <v>74</v>
@@ -3012,15 +2884,17 @@
         <v>74</v>
       </c>
       <c r="J13" t="s" s="2">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="L13" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M13" s="2"/>
+      <c r="M13" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N13" s="2"/>
       <c r="O13" t="s" s="2">
         <v>74</v>
@@ -3057,31 +2931,31 @@
         <v>74</v>
       </c>
       <c r="AA13" t="s" s="2">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="AB13" t="s" s="2">
-        <v>74</v>
+        <v>152</v>
       </c>
       <c r="AC13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD13" t="s" s="2">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="AE13" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AF13" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG13" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="AH13" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI13" t="s" s="2">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="AJ13" t="s" s="2">
         <v>74</v>
@@ -3090,46 +2964,48 @@
         <v>74</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="14" hidden="true">
+    <row r="14">
       <c r="A14" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B14" s="2"/>
       <c r="C14" t="s" s="2">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F14" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H14" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I14" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J14" t="s" s="2">
-        <v>128</v>
+        <v>102</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>129</v>
+        <v>156</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N14" s="2"/>
+        <v>158</v>
+      </c>
+      <c r="N14" t="s" s="2">
+        <v>159</v>
+      </c>
       <c r="O14" t="s" s="2">
         <v>74</v>
       </c>
@@ -3153,43 +3029,41 @@
         <v>74</v>
       </c>
       <c r="W14" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X14" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="X14" s="2"/>
       <c r="Y14" t="s" s="2">
-        <v>74</v>
+        <v>161</v>
       </c>
       <c r="Z14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AA14" t="s" s="2">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="AB14" t="s" s="2">
-        <v>156</v>
+        <v>74</v>
       </c>
       <c r="AC14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD14" t="s" s="2">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="AE14" t="s" s="2">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="AF14" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG14" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AH14" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI14" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ14" t="s" s="2">
         <v>74</v>
@@ -3198,12 +3072,12 @@
         <v>74</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>145</v>
+        <v>163</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
-        <v>158</v>
+        <v>164</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" t="s" s="2">
@@ -3220,25 +3094,25 @@
         <v>74</v>
       </c>
       <c r="H15" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I15" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J15" t="s" s="2">
-        <v>102</v>
+        <v>165</v>
       </c>
       <c r="K15" t="s" s="2">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="L15" t="s" s="2">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="N15" t="s" s="2">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="O15" t="s" s="2">
         <v>74</v>
@@ -3248,7 +3122,7 @@
         <v>74</v>
       </c>
       <c r="R15" t="s" s="2">
-        <v>163</v>
+        <v>74</v>
       </c>
       <c r="S15" t="s" s="2">
         <v>74</v>
@@ -3263,11 +3137,11 @@
         <v>74</v>
       </c>
       <c r="W15" t="s" s="2">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="X15" s="2"/>
       <c r="Y15" t="s" s="2">
-        <v>165</v>
+        <v>171</v>
       </c>
       <c r="Z15" t="s" s="2">
         <v>74</v>
@@ -3285,7 +3159,7 @@
         <v>74</v>
       </c>
       <c r="AE15" t="s" s="2">
-        <v>166</v>
+        <v>172</v>
       </c>
       <c r="AF15" t="s" s="2">
         <v>72</v>
@@ -3306,12 +3180,12 @@
         <v>74</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>167</v>
+        <v>163</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
-        <v>168</v>
+        <v>173</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" t="s" s="2">
@@ -3319,7 +3193,7 @@
       </c>
       <c r="D16" s="2"/>
       <c r="E16" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="F16" t="s" s="2">
         <v>82</v>
@@ -3334,19 +3208,19 @@
         <v>83</v>
       </c>
       <c r="J16" t="s" s="2">
-        <v>169</v>
+        <v>96</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="N16" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="O16" t="s" s="2">
         <v>74</v>
@@ -3359,7 +3233,7 @@
         <v>74</v>
       </c>
       <c r="S16" t="s" s="2">
-        <v>74</v>
+        <v>178</v>
       </c>
       <c r="T16" t="s" s="2">
         <v>74</v>
@@ -3371,11 +3245,11 @@
         <v>74</v>
       </c>
       <c r="W16" t="s" s="2">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="X16" s="2"/>
       <c r="Y16" t="s" s="2">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="Z16" t="s" s="2">
         <v>74</v>
@@ -3393,7 +3267,7 @@
         <v>74</v>
       </c>
       <c r="AE16" t="s" s="2">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="AF16" t="s" s="2">
         <v>72</v>
@@ -3414,12 +3288,12 @@
         <v>74</v>
       </c>
       <c r="AL16" t="s" s="2">
-        <v>167</v>
+        <v>181</v>
       </c>
     </row>
-    <row r="17" hidden="true">
+    <row r="17">
       <c r="A17" t="s" s="2">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" t="s" s="2">
@@ -3442,20 +3316,18 @@
         <v>83</v>
       </c>
       <c r="J17" t="s" s="2">
-        <v>96</v>
+        <v>145</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>185</v>
+      </c>
+      <c r="N17" s="2"/>
       <c r="O17" t="s" s="2">
         <v>74</v>
       </c>
@@ -3464,10 +3336,10 @@
         <v>74</v>
       </c>
       <c r="R17" t="s" s="2">
-        <v>182</v>
+        <v>74</v>
       </c>
       <c r="S17" t="s" s="2">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="T17" t="s" s="2">
         <v>74</v>
@@ -3503,7 +3375,7 @@
         <v>74</v>
       </c>
       <c r="AE17" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="AF17" t="s" s="2">
         <v>72</v>
@@ -3524,12 +3396,12 @@
         <v>74</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
-    <row r="18" hidden="true">
+    <row r="18">
       <c r="A18" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" t="s" s="2">
@@ -3552,17 +3424,15 @@
         <v>83</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>149</v>
+        <v>190</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>192</v>
+      </c>
+      <c r="M18" s="2"/>
       <c r="N18" s="2"/>
       <c r="O18" t="s" s="2">
         <v>74</v>
@@ -3575,7 +3445,7 @@
         <v>74</v>
       </c>
       <c r="S18" t="s" s="2">
-        <v>190</v>
+        <v>74</v>
       </c>
       <c r="T18" t="s" s="2">
         <v>74</v>
@@ -3611,7 +3481,7 @@
         <v>74</v>
       </c>
       <c r="AE18" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="AF18" t="s" s="2">
         <v>72</v>
@@ -3632,12 +3502,12 @@
         <v>74</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
-    <row r="19" hidden="true">
+    <row r="19">
       <c r="A19" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" t="s" s="2">
@@ -3660,15 +3530,17 @@
         <v>83</v>
       </c>
       <c r="J19" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="M19" s="2"/>
+        <v>198</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>199</v>
+      </c>
       <c r="N19" s="2"/>
       <c r="O19" t="s" s="2">
         <v>74</v>
@@ -3717,7 +3589,7 @@
         <v>74</v>
       </c>
       <c r="AE19" t="s" s="2">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="AF19" t="s" s="2">
         <v>72</v>
@@ -3738,12 +3610,12 @@
         <v>74</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>198</v>
+        <v>201</v>
       </c>
     </row>
-    <row r="20" hidden="true">
+    <row r="20">
       <c r="A20" t="s" s="2">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" t="s" s="2">
@@ -3751,7 +3623,7 @@
       </c>
       <c r="D20" s="2"/>
       <c r="E20" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="F20" t="s" s="2">
         <v>82</v>
@@ -3760,22 +3632,22 @@
         <v>74</v>
       </c>
       <c r="H20" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I20" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J20" t="s" s="2">
-        <v>200</v>
+        <v>102</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" t="s" s="2">
@@ -3801,13 +3673,13 @@
         <v>74</v>
       </c>
       <c r="W20" t="s" s="2">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="X20" t="s" s="2">
-        <v>74</v>
+        <v>206</v>
       </c>
       <c r="Y20" t="s" s="2">
-        <v>74</v>
+        <v>207</v>
       </c>
       <c r="Z20" t="s" s="2">
         <v>74</v>
@@ -3825,10 +3697,10 @@
         <v>74</v>
       </c>
       <c r="AE20" t="s" s="2">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>82</v>
@@ -3840,22 +3712,20 @@
         <v>94</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="AK20" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>205</v>
+        <v>74</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="2">
-        <v>139</v>
-      </c>
-      <c r="B21" t="s" s="2">
-        <v>206</v>
-      </c>
+        <v>208</v>
+      </c>
+      <c r="B21" s="2"/>
       <c r="C21" t="s" s="2">
         <v>74</v>
       </c>
@@ -3867,7 +3737,7 @@
         <v>73</v>
       </c>
       <c r="G21" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H21" t="s" s="2">
         <v>74</v>
@@ -3876,13 +3746,13 @@
         <v>83</v>
       </c>
       <c r="J21" t="s" s="2">
-        <v>140</v>
+        <v>209</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="M21" s="2"/>
       <c r="N21" s="2"/>
@@ -3933,7 +3803,7 @@
         <v>74</v>
       </c>
       <c r="AE21" t="s" s="2">
-        <v>139</v>
+        <v>208</v>
       </c>
       <c r="AF21" t="s" s="2">
         <v>72</v>
@@ -3948,7 +3818,7 @@
         <v>94</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>145</v>
+        <v>212</v>
       </c>
       <c r="AK21" t="s" s="2">
         <v>74</v>
@@ -3957,9 +3827,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="22" hidden="true">
+    <row r="22">
       <c r="A22" t="s" s="2">
-        <v>148</v>
+        <v>213</v>
       </c>
       <c r="B22" s="2"/>
       <c r="C22" t="s" s="2">
@@ -3979,16 +3849,16 @@
         <v>74</v>
       </c>
       <c r="I22" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J22" t="s" s="2">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="K22" t="s" s="2">
-        <v>150</v>
+        <v>214</v>
       </c>
       <c r="L22" t="s" s="2">
-        <v>151</v>
+        <v>215</v>
       </c>
       <c r="M22" s="2"/>
       <c r="N22" s="2"/>
@@ -4003,7 +3873,7 @@
         <v>74</v>
       </c>
       <c r="S22" t="s" s="2">
-        <v>74</v>
+        <v>216</v>
       </c>
       <c r="T22" t="s" s="2">
         <v>74</v>
@@ -4015,13 +3885,13 @@
         <v>74</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>74</v>
+        <v>217</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>74</v>
+        <v>218</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>74</v>
+        <v>219</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>74</v>
@@ -4039,7 +3909,7 @@
         <v>74</v>
       </c>
       <c r="AE22" t="s" s="2">
-        <v>152</v>
+        <v>213</v>
       </c>
       <c r="AF22" t="s" s="2">
         <v>72</v>
@@ -4051,32 +3921,32 @@
         <v>74</v>
       </c>
       <c r="AI22" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>74</v>
+        <v>220</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>145</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="23" hidden="true">
+    <row r="23">
       <c r="A23" t="s" s="2">
-        <v>153</v>
+        <v>221</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="D23" s="2"/>
       <c r="E23" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F23" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G23" t="s" s="2">
         <v>74</v>
@@ -4085,20 +3955,18 @@
         <v>74</v>
       </c>
       <c r="I23" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J23" t="s" s="2">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>129</v>
+        <v>222</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>223</v>
+      </c>
+      <c r="M23" s="2"/>
       <c r="N23" s="2"/>
       <c r="O23" t="s" s="2">
         <v>74</v>
@@ -4111,7 +3979,7 @@
         <v>74</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>74</v>
+        <v>224</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>74</v>
@@ -4123,57 +3991,57 @@
         <v>74</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>74</v>
+        <v>217</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>74</v>
+        <v>225</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>74</v>
+        <v>226</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AA23" t="s" s="2">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="AB23" t="s" s="2">
-        <v>156</v>
+        <v>74</v>
       </c>
       <c r="AC23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD23" t="s" s="2">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>157</v>
+        <v>221</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG23" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AH23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI23" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>74</v>
+        <v>227</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL23" t="s" s="2">
-        <v>145</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="24" hidden="true">
+    <row r="24">
       <c r="A24" t="s" s="2">
-        <v>158</v>
+        <v>228</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4184,32 +4052,28 @@
         <v>72</v>
       </c>
       <c r="F24" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H24" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I24" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>102</v>
+        <v>229</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>159</v>
+        <v>230</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>160</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>161</v>
-      </c>
-      <c r="N24" t="s" s="2">
-        <v>162</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="M24" s="2"/>
+      <c r="N24" s="2"/>
       <c r="O24" t="s" s="2">
         <v>74</v>
       </c>
@@ -4218,7 +4082,7 @@
         <v>74</v>
       </c>
       <c r="R24" t="s" s="2">
-        <v>163</v>
+        <v>74</v>
       </c>
       <c r="S24" t="s" s="2">
         <v>74</v>
@@ -4233,11 +4097,13 @@
         <v>74</v>
       </c>
       <c r="W24" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="X24" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="X24" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="Y24" t="s" s="2">
-        <v>165</v>
+        <v>74</v>
       </c>
       <c r="Z24" t="s" s="2">
         <v>74</v>
@@ -4255,13 +4121,13 @@
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>166</v>
+        <v>228</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG24" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="AH24" t="s" s="2">
         <v>74</v>
@@ -4270,18 +4136,18 @@
         <v>94</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>74</v>
+        <v>232</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>167</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="25" hidden="true">
+    <row r="25">
       <c r="A25" t="s" s="2">
-        <v>168</v>
+        <v>233</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4292,7 +4158,7 @@
         <v>72</v>
       </c>
       <c r="F25" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G25" t="s" s="2">
         <v>74</v>
@@ -4304,20 +4170,16 @@
         <v>83</v>
       </c>
       <c r="J25" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>170</v>
+        <v>234</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>171</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>172</v>
-      </c>
-      <c r="N25" t="s" s="2">
-        <v>173</v>
-      </c>
+        <v>235</v>
+      </c>
+      <c r="M25" s="2"/>
+      <c r="N25" s="2"/>
       <c r="O25" t="s" s="2">
         <v>74</v>
       </c>
@@ -4341,11 +4203,13 @@
         <v>74</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="X25" s="2"/>
+        <v>217</v>
+      </c>
+      <c r="X25" t="s" s="2">
+        <v>236</v>
+      </c>
       <c r="Y25" t="s" s="2">
-        <v>175</v>
+        <v>237</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>74</v>
@@ -4363,13 +4227,13 @@
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>176</v>
+        <v>233</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG25" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="AH25" t="s" s="2">
         <v>74</v>
@@ -4378,18 +4242,18 @@
         <v>94</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>74</v>
+        <v>238</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>167</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="26" hidden="true">
+    <row r="26">
       <c r="A26" t="s" s="2">
-        <v>177</v>
+        <v>239</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4397,7 +4261,7 @@
       </c>
       <c r="D26" s="2"/>
       <c r="E26" t="s" s="2">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F26" t="s" s="2">
         <v>82</v>
@@ -4412,20 +4276,16 @@
         <v>83</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>96</v>
+        <v>240</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>178</v>
+        <v>241</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>179</v>
-      </c>
-      <c r="M26" t="s" s="2">
-        <v>180</v>
-      </c>
-      <c r="N26" t="s" s="2">
-        <v>181</v>
-      </c>
+        <v>242</v>
+      </c>
+      <c r="M26" s="2"/>
+      <c r="N26" s="2"/>
       <c r="O26" t="s" s="2">
         <v>74</v>
       </c>
@@ -4434,10 +4294,10 @@
         <v>74</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>208</v>
+        <v>74</v>
       </c>
       <c r="S26" t="s" s="2">
-        <v>183</v>
+        <v>74</v>
       </c>
       <c r="T26" t="s" s="2">
         <v>74</v>
@@ -4473,7 +4333,7 @@
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>184</v>
+        <v>239</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>72</v>
@@ -4488,18 +4348,18 @@
         <v>94</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>74</v>
+        <v>243</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>185</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="27" hidden="true">
+    <row r="27">
       <c r="A27" t="s" s="2">
-        <v>186</v>
+        <v>244</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4510,7 +4370,7 @@
         <v>72</v>
       </c>
       <c r="F27" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>74</v>
@@ -4522,17 +4382,15 @@
         <v>83</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>149</v>
+        <v>245</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>207</v>
+        <v>246</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="M27" t="s" s="2">
-        <v>189</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="M27" s="2"/>
       <c r="N27" s="2"/>
       <c r="O27" t="s" s="2">
         <v>74</v>
@@ -4545,7 +4403,7 @@
         <v>74</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>190</v>
+        <v>74</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>74</v>
@@ -4569,25 +4427,23 @@
         <v>74</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB27" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="AB27" s="2"/>
       <c r="AC27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD27" t="s" s="2">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>191</v>
+        <v>244</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG27" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="AH27" t="s" s="2">
         <v>74</v>
@@ -4596,18 +4452,18 @@
         <v>94</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>74</v>
+        <v>249</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>192</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="28" hidden="true">
+    <row r="28">
       <c r="A28" t="s" s="2">
-        <v>193</v>
+        <v>250</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4627,16 +4483,16 @@
         <v>74</v>
       </c>
       <c r="I28" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J28" t="s" s="2">
-        <v>194</v>
+        <v>84</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>195</v>
+        <v>146</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>196</v>
+        <v>147</v>
       </c>
       <c r="M28" s="2"/>
       <c r="N28" s="2"/>
@@ -4687,7 +4543,7 @@
         <v>74</v>
       </c>
       <c r="AE28" t="s" s="2">
-        <v>197</v>
+        <v>148</v>
       </c>
       <c r="AF28" t="s" s="2">
         <v>72</v>
@@ -4699,7 +4555,7 @@
         <v>74</v>
       </c>
       <c r="AI28" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ28" t="s" s="2">
         <v>74</v>
@@ -4708,23 +4564,23 @@
         <v>74</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>198</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="29" hidden="true">
+    <row r="29">
       <c r="A29" t="s" s="2">
-        <v>199</v>
+        <v>251</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F29" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>74</v>
@@ -4733,19 +4589,19 @@
         <v>74</v>
       </c>
       <c r="I29" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J29" t="s" s="2">
-        <v>200</v>
+        <v>128</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>201</v>
+        <v>129</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>202</v>
+        <v>150</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>203</v>
+        <v>131</v>
       </c>
       <c r="N29" s="2"/>
       <c r="O29" t="s" s="2">
@@ -4795,19 +4651,19 @@
         <v>74</v>
       </c>
       <c r="AE29" t="s" s="2">
-        <v>204</v>
+        <v>154</v>
       </c>
       <c r="AF29" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG29" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="AH29" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI29" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ29" t="s" s="2">
         <v>74</v>
@@ -4816,23 +4672,23 @@
         <v>74</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>205</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="30" hidden="true">
+    <row r="30">
       <c r="A30" t="s" s="2">
-        <v>209</v>
+        <v>252</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>74</v>
+        <v>253</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F30" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G30" t="s" s="2">
         <v>74</v>
@@ -4844,18 +4700,20 @@
         <v>83</v>
       </c>
       <c r="J30" t="s" s="2">
-        <v>102</v>
+        <v>128</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>210</v>
+        <v>254</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>211</v>
+        <v>255</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>212</v>
-      </c>
-      <c r="N30" s="2"/>
+        <v>131</v>
+      </c>
+      <c r="N30" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O30" t="s" s="2">
         <v>74</v>
       </c>
@@ -4879,13 +4737,13 @@
         <v>74</v>
       </c>
       <c r="W30" t="s" s="2">
-        <v>164</v>
+        <v>74</v>
       </c>
       <c r="X30" t="s" s="2">
-        <v>213</v>
+        <v>74</v>
       </c>
       <c r="Y30" t="s" s="2">
-        <v>214</v>
+        <v>74</v>
       </c>
       <c r="Z30" t="s" s="2">
         <v>74</v>
@@ -4903,33 +4761,33 @@
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>209</v>
+        <v>256</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="AG30" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="AH30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI30" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ30" t="s" s="2">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="AK30" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>74</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="31" hidden="true">
+    <row r="31">
       <c r="A31" t="s" s="2">
-        <v>215</v>
+        <v>257</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4937,10 +4795,10 @@
       </c>
       <c r="D31" s="2"/>
       <c r="E31" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="F31" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G31" t="s" s="2">
         <v>74</v>
@@ -4952,13 +4810,13 @@
         <v>83</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>216</v>
+        <v>165</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>217</v>
+        <v>258</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>218</v>
+        <v>259</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4985,13 +4843,13 @@
         <v>74</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>74</v>
+        <v>217</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>74</v>
+        <v>260</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>74</v>
+        <v>261</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>74</v>
@@ -5009,13 +4867,13 @@
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>215</v>
+        <v>257</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="AG31" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AH31" t="s" s="2">
         <v>74</v>
@@ -5024,7 +4882,7 @@
         <v>94</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>219</v>
+        <v>262</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>74</v>
@@ -5033,9 +4891,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="32" hidden="true">
+    <row r="32">
       <c r="A32" t="s" s="2">
-        <v>220</v>
+        <v>263</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -5058,13 +4916,13 @@
         <v>83</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>169</v>
+        <v>264</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>221</v>
+        <v>265</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>222</v>
+        <v>266</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -5091,13 +4949,13 @@
         <v>74</v>
       </c>
       <c r="W32" t="s" s="2">
-        <v>223</v>
+        <v>74</v>
       </c>
       <c r="X32" t="s" s="2">
-        <v>224</v>
+        <v>74</v>
       </c>
       <c r="Y32" t="s" s="2">
-        <v>225</v>
+        <v>74</v>
       </c>
       <c r="Z32" t="s" s="2">
         <v>74</v>
@@ -5115,7 +4973,7 @@
         <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>220</v>
+        <v>263</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>72</v>
@@ -5130,7 +4988,7 @@
         <v>94</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>226</v>
+        <v>267</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>74</v>
@@ -5139,9 +4997,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" hidden="true">
+    <row r="33">
       <c r="A33" t="s" s="2">
-        <v>227</v>
+        <v>268</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5161,16 +5019,16 @@
         <v>74</v>
       </c>
       <c r="I33" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J33" t="s" s="2">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>150</v>
+        <v>269</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>151</v>
+        <v>270</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5197,13 +5055,13 @@
         <v>74</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>74</v>
+        <v>206</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>74</v>
+        <v>271</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>74</v>
@@ -5221,7 +5079,7 @@
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>152</v>
+        <v>268</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>72</v>
@@ -5233,25 +5091,27 @@
         <v>74</v>
       </c>
       <c r="AI33" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>74</v>
+        <v>272</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>145</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="34" hidden="true">
+    <row r="34">
       <c r="A34" t="s" s="2">
-        <v>228</v>
-      </c>
-      <c r="B34" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="B34" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="C34" t="s" s="2">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" t="s" s="2">
@@ -5267,20 +5127,18 @@
         <v>74</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>128</v>
+        <v>245</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>129</v>
+        <v>246</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M34" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="M34" s="2"/>
       <c r="N34" s="2"/>
       <c r="O34" t="s" s="2">
         <v>74</v>
@@ -5317,19 +5175,19 @@
         <v>74</v>
       </c>
       <c r="AA34" t="s" s="2">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="AB34" t="s" s="2">
-        <v>156</v>
+        <v>74</v>
       </c>
       <c r="AC34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD34" t="s" s="2">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>157</v>
+        <v>244</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>72</v>
@@ -5341,21 +5199,21 @@
         <v>74</v>
       </c>
       <c r="AI34" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>74</v>
+        <v>249</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>145</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="35" hidden="true">
+    <row r="35">
       <c r="A35" t="s" s="2">
-        <v>229</v>
+        <v>250</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5366,7 +5224,7 @@
         <v>72</v>
       </c>
       <c r="F35" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G35" t="s" s="2">
         <v>74</v>
@@ -5375,23 +5233,19 @@
         <v>74</v>
       </c>
       <c r="I35" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J35" t="s" s="2">
-        <v>230</v>
+        <v>84</v>
       </c>
       <c r="K35" t="s" s="2">
-        <v>231</v>
+        <v>146</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M35" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N35" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="M35" s="2"/>
+      <c r="N35" s="2"/>
       <c r="O35" t="s" s="2">
         <v>74</v>
       </c>
@@ -5427,49 +5281,49 @@
         <v>74</v>
       </c>
       <c r="AA35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AB35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AC35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AE35" t="s" s="2">
+        <v>148</v>
+      </c>
+      <c r="AF35" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AG35" t="s" s="2">
+        <v>82</v>
+      </c>
+      <c r="AH35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AI35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AJ35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AK35" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AL35" t="s" s="2">
         <v>143</v>
-      </c>
-      <c r="AB35" s="2"/>
-      <c r="AC35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD35" t="s" s="2">
-        <v>144</v>
-      </c>
-      <c r="AE35" t="s" s="2">
-        <v>235</v>
-      </c>
-      <c r="AF35" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG35" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI35" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK35" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL35" t="s" s="2">
-        <v>236</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="B36" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>251</v>
+      </c>
+      <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" t="s" s="2">
@@ -5479,29 +5333,27 @@
         <v>73</v>
       </c>
       <c r="G36" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="H36" t="s" s="2">
         <v>74</v>
       </c>
       <c r="I36" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J36" t="s" s="2">
-        <v>230</v>
+        <v>128</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>147</v>
+        <v>129</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>237</v>
+        <v>150</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N36" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N36" s="2"/>
       <c r="O36" t="s" s="2">
         <v>74</v>
       </c>
@@ -5549,7 +5401,7 @@
         <v>74</v>
       </c>
       <c r="AE36" t="s" s="2">
-        <v>235</v>
+        <v>154</v>
       </c>
       <c r="AF36" t="s" s="2">
         <v>72</v>
@@ -5561,7 +5413,7 @@
         <v>74</v>
       </c>
       <c r="AI36" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ36" t="s" s="2">
         <v>74</v>
@@ -5570,44 +5422,48 @@
         <v>74</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>236</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="37" hidden="true">
+    <row r="37">
       <c r="A37" t="s" s="2">
-        <v>238</v>
+        <v>252</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>74</v>
+        <v>253</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F37" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H37" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I37" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J37" t="s" s="2">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>150</v>
+        <v>254</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M37" s="2"/>
-      <c r="N37" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="M37" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N37" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O37" t="s" s="2">
         <v>74</v>
       </c>
@@ -5655,19 +5511,19 @@
         <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>152</v>
+        <v>256</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG37" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="AH37" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI37" t="s" s="2">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="AJ37" t="s" s="2">
         <v>74</v>
@@ -5676,23 +5532,23 @@
         <v>74</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>145</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="38" hidden="true">
+    <row r="38">
       <c r="A38" t="s" s="2">
-        <v>239</v>
+        <v>257</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="F38" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G38" t="s" s="2">
         <v>74</v>
@@ -5701,20 +5557,18 @@
         <v>74</v>
       </c>
       <c r="I38" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J38" t="s" s="2">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>129</v>
+        <v>258</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M38" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="M38" s="2"/>
       <c r="N38" s="2"/>
       <c r="O38" t="s" s="2">
         <v>74</v>
@@ -5724,7 +5578,7 @@
         <v>74</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>74</v>
+        <v>274</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>74</v>
@@ -5739,57 +5593,57 @@
         <v>74</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>74</v>
+        <v>217</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>74</v>
+        <v>260</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>74</v>
+        <v>261</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AA38" t="s" s="2">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="AB38" t="s" s="2">
-        <v>156</v>
+        <v>74</v>
       </c>
       <c r="AC38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD38" t="s" s="2">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>157</v>
+        <v>257</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="AG38" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AH38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI38" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>74</v>
+        <v>262</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>145</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="39" hidden="true">
+    <row r="39">
       <c r="A39" t="s" s="2">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5797,7 +5651,7 @@
       </c>
       <c r="D39" s="2"/>
       <c r="E39" t="s" s="2">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F39" t="s" s="2">
         <v>82</v>
@@ -5812,20 +5666,16 @@
         <v>83</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>96</v>
+        <v>165</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>241</v>
+        <v>265</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M39" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N39" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="M39" s="2"/>
+      <c r="N39" s="2"/>
       <c r="O39" t="s" s="2">
         <v>74</v>
       </c>
@@ -5834,7 +5684,7 @@
         <v>74</v>
       </c>
       <c r="R39" t="s" s="2">
-        <v>245</v>
+        <v>74</v>
       </c>
       <c r="S39" t="s" s="2">
         <v>74</v>
@@ -5873,7 +5723,7 @@
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>246</v>
+        <v>263</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>72</v>
@@ -5888,18 +5738,18 @@
         <v>94</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>74</v>
+        <v>267</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>247</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="40" hidden="true">
+    <row r="40">
       <c r="A40" t="s" s="2">
-        <v>248</v>
+        <v>268</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5922,17 +5772,15 @@
         <v>83</v>
       </c>
       <c r="J40" t="s" s="2">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>249</v>
+        <v>269</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M40" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="M40" s="2"/>
       <c r="N40" s="2"/>
       <c r="O40" t="s" s="2">
         <v>74</v>
@@ -5957,13 +5805,13 @@
         <v>74</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>74</v>
+        <v>206</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>74</v>
+        <v>271</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>74</v>
@@ -5981,7 +5829,7 @@
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>252</v>
+        <v>268</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>72</v>
@@ -5996,29 +5844,31 @@
         <v>94</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>74</v>
+        <v>272</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>253</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="41" hidden="true">
+    <row r="41">
       <c r="A41" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="B41" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="B41" t="s" s="2">
+        <v>275</v>
+      </c>
       <c r="C41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" t="s" s="2">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F41" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G41" t="s" s="2">
         <v>74</v>
@@ -6030,18 +5880,16 @@
         <v>83</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>102</v>
+        <v>245</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="M41" s="2"/>
-      <c r="N41" t="s" s="2">
-        <v>257</v>
-      </c>
+      <c r="N41" s="2"/>
       <c r="O41" t="s" s="2">
         <v>74</v>
       </c>
@@ -6089,13 +5937,13 @@
         <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG41" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="AH41" t="s" s="2">
         <v>74</v>
@@ -6104,18 +5952,18 @@
         <v>94</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>74</v>
+        <v>249</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>259</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="42" hidden="true">
+    <row r="42">
       <c r="A42" t="s" s="2">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6135,21 +5983,19 @@
         <v>74</v>
       </c>
       <c r="I42" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J42" t="s" s="2">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>261</v>
+        <v>146</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>262</v>
+        <v>147</v>
       </c>
       <c r="M42" s="2"/>
-      <c r="N42" t="s" s="2">
-        <v>263</v>
-      </c>
+      <c r="N42" s="2"/>
       <c r="O42" t="s" s="2">
         <v>74</v>
       </c>
@@ -6197,7 +6043,7 @@
         <v>74</v>
       </c>
       <c r="AE42" t="s" s="2">
-        <v>264</v>
+        <v>148</v>
       </c>
       <c r="AF42" t="s" s="2">
         <v>72</v>
@@ -6209,7 +6055,7 @@
         <v>74</v>
       </c>
       <c r="AI42" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ42" t="s" s="2">
         <v>74</v>
@@ -6218,23 +6064,23 @@
         <v>74</v>
       </c>
       <c r="AL42" t="s" s="2">
-        <v>265</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="43" hidden="true">
+    <row r="43">
       <c r="A43" t="s" s="2">
-        <v>266</v>
+        <v>251</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="D43" s="2"/>
       <c r="E43" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F43" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G43" t="s" s="2">
         <v>74</v>
@@ -6243,23 +6089,21 @@
         <v>74</v>
       </c>
       <c r="I43" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J43" t="s" s="2">
-        <v>267</v>
+        <v>128</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>268</v>
+        <v>129</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>269</v>
+        <v>150</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N43" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N43" s="2"/>
       <c r="O43" t="s" s="2">
         <v>74</v>
       </c>
@@ -6307,19 +6151,19 @@
         <v>74</v>
       </c>
       <c r="AE43" t="s" s="2">
-        <v>272</v>
+        <v>154</v>
       </c>
       <c r="AF43" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG43" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="AH43" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI43" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ43" t="s" s="2">
         <v>74</v>
@@ -6328,47 +6172,47 @@
         <v>74</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>273</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="44" hidden="true">
+    <row r="44">
       <c r="A44" t="s" s="2">
-        <v>274</v>
+        <v>252</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>74</v>
+        <v>253</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F44" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H44" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I44" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J44" t="s" s="2">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>277</v>
+        <v>131</v>
       </c>
       <c r="N44" t="s" s="2">
-        <v>278</v>
+        <v>137</v>
       </c>
       <c r="O44" t="s" s="2">
         <v>74</v>
@@ -6417,19 +6261,19 @@
         <v>74</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG44" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="AH44" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI44" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ44" t="s" s="2">
         <v>74</v>
@@ -6438,12 +6282,12 @@
         <v>74</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>280</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="45" hidden="true">
+    <row r="45">
       <c r="A45" t="s" s="2">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6451,7 +6295,7 @@
       </c>
       <c r="D45" s="2"/>
       <c r="E45" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="F45" t="s" s="2">
         <v>82</v>
@@ -6466,13 +6310,13 @@
         <v>83</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>282</v>
+        <v>258</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>283</v>
+        <v>259</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6484,7 +6328,7 @@
         <v>74</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>74</v>
+        <v>276</v>
       </c>
       <c r="S45" t="s" s="2">
         <v>74</v>
@@ -6499,13 +6343,13 @@
         <v>74</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>284</v>
+        <v>260</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>285</v>
+        <v>261</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>74</v>
@@ -6523,10 +6367,10 @@
         <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>281</v>
+        <v>257</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>82</v>
@@ -6538,7 +6382,7 @@
         <v>94</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>286</v>
+        <v>262</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>74</v>
@@ -6547,9 +6391,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="46" hidden="true">
+    <row r="46">
       <c r="A46" t="s" s="2">
-        <v>287</v>
+        <v>263</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6569,16 +6413,16 @@
         <v>74</v>
       </c>
       <c r="I46" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J46" t="s" s="2">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>150</v>
+        <v>265</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>151</v>
+        <v>266</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6629,7 +6473,7 @@
         <v>74</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>152</v>
+        <v>263</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>72</v>
@@ -6641,32 +6485,32 @@
         <v>74</v>
       </c>
       <c r="AI46" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>74</v>
+        <v>267</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>145</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="47" hidden="true">
+    <row r="47">
       <c r="A47" t="s" s="2">
-        <v>288</v>
+        <v>268</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="D47" s="2"/>
       <c r="E47" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F47" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G47" t="s" s="2">
         <v>74</v>
@@ -6675,20 +6519,18 @@
         <v>74</v>
       </c>
       <c r="I47" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>129</v>
+        <v>269</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M47" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="M47" s="2"/>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
         <v>74</v>
@@ -6713,59 +6555,61 @@
         <v>74</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>74</v>
+        <v>206</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>74</v>
+        <v>271</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AA47" t="s" s="2">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="AB47" t="s" s="2">
-        <v>156</v>
+        <v>74</v>
       </c>
       <c r="AC47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD47" t="s" s="2">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>157</v>
+        <v>268</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG47" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AH47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI47" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>74</v>
+        <v>272</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>145</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="48" hidden="true">
+    <row r="48">
       <c r="A48" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="B48" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="B48" t="s" s="2">
+        <v>277</v>
+      </c>
       <c r="C48" t="s" s="2">
         <v>74</v>
       </c>
@@ -6786,20 +6630,16 @@
         <v>83</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>231</v>
+        <v>246</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M48" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N48" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="M48" s="2"/>
+      <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
         <v>74</v>
       </c>
@@ -6835,17 +6675,19 @@
         <v>74</v>
       </c>
       <c r="AA48" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AB48" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AB48" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AC48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD48" t="s" s="2">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>72</v>
@@ -6860,22 +6702,20 @@
         <v>94</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>74</v>
+        <v>249</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>236</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="49" hidden="true">
+    <row r="49">
       <c r="A49" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="B49" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
         <v>74</v>
       </c>
@@ -6884,7 +6724,7 @@
         <v>72</v>
       </c>
       <c r="F49" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G49" t="s" s="2">
         <v>74</v>
@@ -6893,23 +6733,19 @@
         <v>74</v>
       </c>
       <c r="I49" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>230</v>
+        <v>84</v>
       </c>
       <c r="K49" t="s" s="2">
+        <v>146</v>
+      </c>
+      <c r="L49" t="s" s="2">
         <v>147</v>
       </c>
-      <c r="L49" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M49" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N49" t="s" s="2">
-        <v>234</v>
-      </c>
+      <c r="M49" s="2"/>
+      <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
         <v>74</v>
       </c>
@@ -6957,19 +6793,19 @@
         <v>74</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>235</v>
+        <v>148</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG49" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AH49" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI49" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ49" t="s" s="2">
         <v>74</v>
@@ -6978,23 +6814,23 @@
         <v>74</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>236</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="50" hidden="true">
+    <row r="50">
       <c r="A50" t="s" s="2">
-        <v>290</v>
+        <v>251</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="D50" s="2"/>
       <c r="E50" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F50" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G50" t="s" s="2">
         <v>74</v>
@@ -7006,15 +6842,17 @@
         <v>74</v>
       </c>
       <c r="J50" t="s" s="2">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="K50" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="L50" t="s" s="2">
         <v>150</v>
       </c>
-      <c r="L50" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M50" s="2"/>
+      <c r="M50" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
         <v>74</v>
@@ -7063,19 +6901,19 @@
         <v>74</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG50" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="AH50" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>74</v>
@@ -7084,16 +6922,16 @@
         <v>74</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="51" hidden="true">
+    <row r="51">
       <c r="A51" t="s" s="2">
-        <v>291</v>
+        <v>252</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>127</v>
+        <v>253</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -7106,24 +6944,26 @@
         <v>74</v>
       </c>
       <c r="H51" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I51" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J51" t="s" s="2">
         <v>128</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>129</v>
+        <v>254</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>154</v>
+        <v>255</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="N51" s="2"/>
+      <c r="N51" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O51" t="s" s="2">
         <v>74</v>
       </c>
@@ -7159,19 +6999,19 @@
         <v>74</v>
       </c>
       <c r="AA51" t="s" s="2">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="AB51" t="s" s="2">
-        <v>156</v>
+        <v>74</v>
       </c>
       <c r="AC51" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD51" t="s" s="2">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>157</v>
+        <v>256</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>72</v>
@@ -7192,12 +7032,12 @@
         <v>74</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>145</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="52" hidden="true">
+    <row r="52">
       <c r="A52" t="s" s="2">
-        <v>292</v>
+        <v>257</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7220,20 +7060,16 @@
         <v>83</v>
       </c>
       <c r="J52" t="s" s="2">
-        <v>96</v>
+        <v>165</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>241</v>
+        <v>258</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>242</v>
-      </c>
-      <c r="M52" t="s" s="2">
-        <v>243</v>
-      </c>
-      <c r="N52" t="s" s="2">
-        <v>244</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="M52" s="2"/>
+      <c r="N52" s="2"/>
       <c r="O52" t="s" s="2">
         <v>74</v>
       </c>
@@ -7242,7 +7078,7 @@
         <v>74</v>
       </c>
       <c r="R52" t="s" s="2">
-        <v>245</v>
+        <v>278</v>
       </c>
       <c r="S52" t="s" s="2">
         <v>74</v>
@@ -7257,13 +7093,13 @@
         <v>74</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>74</v>
+        <v>217</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>74</v>
+        <v>260</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>74</v>
+        <v>261</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>74</v>
@@ -7281,10 +7117,10 @@
         <v>74</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>82</v>
@@ -7296,18 +7132,18 @@
         <v>94</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>74</v>
+        <v>262</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>247</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="53" hidden="true">
+    <row r="53">
       <c r="A53" t="s" s="2">
-        <v>293</v>
+        <v>263</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7330,17 +7166,15 @@
         <v>83</v>
       </c>
       <c r="J53" t="s" s="2">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>249</v>
+        <v>265</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M53" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="M53" s="2"/>
       <c r="N53" s="2"/>
       <c r="O53" t="s" s="2">
         <v>74</v>
@@ -7389,7 +7223,7 @@
         <v>74</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>252</v>
+        <v>263</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>72</v>
@@ -7404,18 +7238,18 @@
         <v>94</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>74</v>
+        <v>267</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>253</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="54" hidden="true">
+    <row r="54">
       <c r="A54" t="s" s="2">
-        <v>294</v>
+        <v>268</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7423,7 +7257,7 @@
       </c>
       <c r="D54" s="2"/>
       <c r="E54" t="s" s="2">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F54" t="s" s="2">
         <v>82</v>
@@ -7438,18 +7272,16 @@
         <v>83</v>
       </c>
       <c r="J54" t="s" s="2">
-        <v>102</v>
+        <v>165</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>255</v>
+        <v>269</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>256</v>
+        <v>270</v>
       </c>
       <c r="M54" s="2"/>
-      <c r="N54" t="s" s="2">
-        <v>257</v>
-      </c>
+      <c r="N54" s="2"/>
       <c r="O54" t="s" s="2">
         <v>74</v>
       </c>
@@ -7473,13 +7305,13 @@
         <v>74</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>74</v>
+        <v>206</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>74</v>
+        <v>271</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>74</v>
@@ -7497,7 +7329,7 @@
         <v>74</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>258</v>
+        <v>268</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>72</v>
@@ -7512,20 +7344,22 @@
         <v>94</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>74</v>
+        <v>272</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>259</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="55" hidden="true">
+    <row r="55">
       <c r="A55" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="B55" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="B55" t="s" s="2">
+        <v>279</v>
+      </c>
       <c r="C55" t="s" s="2">
         <v>74</v>
       </c>
@@ -7534,7 +7368,7 @@
         <v>72</v>
       </c>
       <c r="F55" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G55" t="s" s="2">
         <v>74</v>
@@ -7546,18 +7380,16 @@
         <v>83</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>149</v>
+        <v>245</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>261</v>
+        <v>246</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>262</v>
+        <v>247</v>
       </c>
       <c r="M55" s="2"/>
-      <c r="N55" t="s" s="2">
-        <v>263</v>
-      </c>
+      <c r="N55" s="2"/>
       <c r="O55" t="s" s="2">
         <v>74</v>
       </c>
@@ -7605,13 +7437,13 @@
         <v>74</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>264</v>
+        <v>244</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG55" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="AH55" t="s" s="2">
         <v>74</v>
@@ -7620,18 +7452,18 @@
         <v>94</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>74</v>
+        <v>249</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>265</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="56" hidden="true">
+    <row r="56">
       <c r="A56" t="s" s="2">
-        <v>296</v>
+        <v>250</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7651,23 +7483,19 @@
         <v>74</v>
       </c>
       <c r="I56" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J56" t="s" s="2">
-        <v>267</v>
+        <v>84</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>268</v>
+        <v>146</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="M56" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N56" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="M56" s="2"/>
+      <c r="N56" s="2"/>
       <c r="O56" t="s" s="2">
         <v>74</v>
       </c>
@@ -7715,7 +7543,7 @@
         <v>74</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>272</v>
+        <v>148</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>72</v>
@@ -7727,7 +7555,7 @@
         <v>74</v>
       </c>
       <c r="AI56" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ56" t="s" s="2">
         <v>74</v>
@@ -7736,23 +7564,23 @@
         <v>74</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>273</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="57" hidden="true">
+    <row r="57">
       <c r="A57" t="s" s="2">
-        <v>297</v>
+        <v>251</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F57" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G57" t="s" s="2">
         <v>74</v>
@@ -7761,23 +7589,21 @@
         <v>74</v>
       </c>
       <c r="I57" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>275</v>
+        <v>129</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>276</v>
+        <v>150</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N57" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N57" s="2"/>
       <c r="O57" t="s" s="2">
         <v>74</v>
       </c>
@@ -7825,19 +7651,19 @@
         <v>74</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>279</v>
+        <v>154</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG57" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="AH57" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI57" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ57" t="s" s="2">
         <v>74</v>
@@ -7846,16 +7672,16 @@
         <v>74</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>280</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="58" hidden="true">
+    <row r="58">
       <c r="A58" t="s" s="2">
-        <v>298</v>
+        <v>252</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>74</v>
+        <v>253</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -7868,22 +7694,26 @@
         <v>74</v>
       </c>
       <c r="H58" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I58" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J58" t="s" s="2">
-        <v>299</v>
+        <v>128</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>300</v>
+        <v>254</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>301</v>
-      </c>
-      <c r="M58" s="2"/>
-      <c r="N58" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="M58" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N58" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O58" t="s" s="2">
         <v>74</v>
       </c>
@@ -7931,7 +7761,7 @@
         <v>74</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>298</v>
+        <v>256</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>72</v>
@@ -7943,21 +7773,21 @@
         <v>74</v>
       </c>
       <c r="AI58" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ58" t="s" s="2">
-        <v>302</v>
+        <v>74</v>
       </c>
       <c r="AK58" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL58" t="s" s="2">
-        <v>74</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="59" hidden="true">
+    <row r="59">
       <c r="A59" t="s" s="2">
-        <v>303</v>
+        <v>257</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7965,10 +7795,10 @@
       </c>
       <c r="D59" s="2"/>
       <c r="E59" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="F59" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G59" t="s" s="2">
         <v>74</v>
@@ -7980,13 +7810,13 @@
         <v>83</v>
       </c>
       <c r="J59" t="s" s="2">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>304</v>
+        <v>258</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>305</v>
+        <v>259</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7998,7 +7828,7 @@
         <v>74</v>
       </c>
       <c r="R59" t="s" s="2">
-        <v>74</v>
+        <v>280</v>
       </c>
       <c r="S59" t="s" s="2">
         <v>74</v>
@@ -8013,13 +7843,13 @@
         <v>74</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>306</v>
+        <v>260</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>307</v>
+        <v>261</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>74</v>
@@ -8037,13 +7867,13 @@
         <v>74</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>303</v>
+        <v>257</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="AG59" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AH59" t="s" s="2">
         <v>74</v>
@@ -8052,7 +7882,7 @@
         <v>94</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>308</v>
+        <v>262</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>74</v>
@@ -8061,9 +7891,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="60" hidden="true">
+    <row r="60">
       <c r="A60" t="s" s="2">
-        <v>309</v>
+        <v>263</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -8086,13 +7916,13 @@
         <v>83</v>
       </c>
       <c r="J60" t="s" s="2">
-        <v>310</v>
+        <v>165</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>311</v>
+        <v>265</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>312</v>
+        <v>266</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -8143,7 +7973,7 @@
         <v>74</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>309</v>
+        <v>263</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>72</v>
@@ -8158,7 +7988,7 @@
         <v>94</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>313</v>
+        <v>267</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>74</v>
@@ -8167,9 +7997,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="61" hidden="true">
+    <row r="61">
       <c r="A61" t="s" s="2">
-        <v>314</v>
+        <v>268</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8180,7 +8010,7 @@
         <v>72</v>
       </c>
       <c r="F61" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G61" t="s" s="2">
         <v>74</v>
@@ -8192,13 +8022,13 @@
         <v>83</v>
       </c>
       <c r="J61" t="s" s="2">
-        <v>315</v>
+        <v>165</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>316</v>
+        <v>269</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>317</v>
+        <v>270</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8225,13 +8055,13 @@
         <v>74</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>74</v>
+        <v>206</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>74</v>
+        <v>271</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>74</v>
@@ -8249,13 +8079,13 @@
         <v>74</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>314</v>
+        <v>268</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG61" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AH61" t="s" s="2">
         <v>74</v>
@@ -8264,7 +8094,7 @@
         <v>94</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>318</v>
+        <v>272</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>74</v>
@@ -8273,11 +8103,13 @@
         <v>74</v>
       </c>
     </row>
-    <row r="62" hidden="true">
+    <row r="62">
       <c r="A62" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="B62" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="B62" t="s" s="2">
+        <v>281</v>
+      </c>
       <c r="C62" t="s" s="2">
         <v>74</v>
       </c>
@@ -8286,7 +8118,7 @@
         <v>72</v>
       </c>
       <c r="F62" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G62" t="s" s="2">
         <v>74</v>
@@ -8295,16 +8127,16 @@
         <v>74</v>
       </c>
       <c r="I62" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>84</v>
+        <v>245</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>150</v>
+        <v>246</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>151</v>
+        <v>247</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8355,44 +8187,44 @@
         <v>74</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>152</v>
+        <v>244</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG62" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="AH62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI62" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>74</v>
+        <v>249</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>145</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="63" hidden="true">
+    <row r="63">
       <c r="A63" t="s" s="2">
-        <v>320</v>
+        <v>250</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F63" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G63" t="s" s="2">
         <v>74</v>
@@ -8404,17 +8236,15 @@
         <v>74</v>
       </c>
       <c r="J63" t="s" s="2">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M63" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="M63" s="2"/>
       <c r="N63" s="2"/>
       <c r="O63" t="s" s="2">
         <v>74</v>
@@ -8463,19 +8293,19 @@
         <v>74</v>
       </c>
       <c r="AE63" t="s" s="2">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="AF63" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG63" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AH63" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI63" t="s" s="2">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="AJ63" t="s" s="2">
         <v>74</v>
@@ -8484,16 +8314,16 @@
         <v>74</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="64" hidden="true">
+    <row r="64">
       <c r="A64" t="s" s="2">
-        <v>321</v>
+        <v>251</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
-        <v>322</v>
+        <v>127</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" t="s" s="2">
@@ -8506,26 +8336,24 @@
         <v>74</v>
       </c>
       <c r="H64" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I64" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J64" t="s" s="2">
         <v>128</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>323</v>
+        <v>129</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>324</v>
+        <v>150</v>
       </c>
       <c r="M64" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="N64" t="s" s="2">
-        <v>137</v>
-      </c>
+      <c r="N64" s="2"/>
       <c r="O64" t="s" s="2">
         <v>74</v>
       </c>
@@ -8573,7 +8401,7 @@
         <v>74</v>
       </c>
       <c r="AE64" t="s" s="2">
-        <v>325</v>
+        <v>154</v>
       </c>
       <c r="AF64" t="s" s="2">
         <v>72</v>
@@ -8594,44 +8422,48 @@
         <v>74</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>125</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="65" hidden="true">
+    <row r="65">
       <c r="A65" t="s" s="2">
-        <v>326</v>
+        <v>252</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>74</v>
+        <v>253</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F65" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H65" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I65" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J65" t="s" s="2">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>327</v>
+        <v>254</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>328</v>
-      </c>
-      <c r="M65" s="2"/>
-      <c r="N65" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="M65" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N65" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O65" t="s" s="2">
         <v>74</v>
       </c>
@@ -8655,13 +8487,13 @@
         <v>74</v>
       </c>
       <c r="W65" t="s" s="2">
-        <v>223</v>
+        <v>74</v>
       </c>
       <c r="X65" t="s" s="2">
-        <v>329</v>
+        <v>74</v>
       </c>
       <c r="Y65" t="s" s="2">
-        <v>330</v>
+        <v>74</v>
       </c>
       <c r="Z65" t="s" s="2">
         <v>74</v>
@@ -8679,33 +8511,33 @@
         <v>74</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>326</v>
+        <v>256</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="AG65" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="AH65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI65" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ65" t="s" s="2">
-        <v>331</v>
+        <v>74</v>
       </c>
       <c r="AK65" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>74</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="66" hidden="true">
+    <row r="66">
       <c r="A66" t="s" s="2">
-        <v>332</v>
+        <v>257</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8713,7 +8545,7 @@
       </c>
       <c r="D66" s="2"/>
       <c r="E66" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="F66" t="s" s="2">
         <v>82</v>
@@ -8728,13 +8560,13 @@
         <v>83</v>
       </c>
       <c r="J66" t="s" s="2">
-        <v>333</v>
+        <v>165</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>334</v>
+        <v>258</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>335</v>
+        <v>259</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -8746,7 +8578,7 @@
         <v>74</v>
       </c>
       <c r="R66" t="s" s="2">
-        <v>74</v>
+        <v>282</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>74</v>
@@ -8761,13 +8593,13 @@
         <v>74</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>74</v>
+        <v>217</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>74</v>
+        <v>260</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>74</v>
+        <v>261</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>74</v>
@@ -8785,10 +8617,10 @@
         <v>74</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>332</v>
+        <v>257</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>82</v>
@@ -8800,7 +8632,7 @@
         <v>94</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>336</v>
+        <v>262</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>74</v>
@@ -8809,9 +8641,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="67" hidden="true">
+    <row r="67">
       <c r="A67" t="s" s="2">
-        <v>337</v>
+        <v>263</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8834,13 +8666,13 @@
         <v>83</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>169</v>
+        <v>283</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>338</v>
+        <v>265</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>339</v>
+        <v>266</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -8867,13 +8699,13 @@
         <v>74</v>
       </c>
       <c r="W67" t="s" s="2">
-        <v>164</v>
+        <v>74</v>
       </c>
       <c r="X67" t="s" s="2">
-        <v>213</v>
+        <v>74</v>
       </c>
       <c r="Y67" t="s" s="2">
-        <v>340</v>
+        <v>74</v>
       </c>
       <c r="Z67" t="s" s="2">
         <v>74</v>
@@ -8891,7 +8723,7 @@
         <v>74</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>337</v>
+        <v>263</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>72</v>
@@ -8906,7 +8738,7 @@
         <v>94</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>341</v>
+        <v>267</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>74</v>
@@ -8915,9 +8747,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="68" hidden="true">
+    <row r="68">
       <c r="A68" t="s" s="2">
-        <v>342</v>
+        <v>268</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8925,10 +8757,10 @@
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F68" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G68" t="s" s="2">
         <v>74</v>
@@ -8940,13 +8772,13 @@
         <v>83</v>
       </c>
       <c r="J68" t="s" s="2">
-        <v>315</v>
+        <v>165</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>343</v>
+        <v>269</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>344</v>
+        <v>270</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8973,13 +8805,13 @@
         <v>74</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>74</v>
+        <v>206</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>74</v>
+        <v>271</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>74</v>
@@ -8997,13 +8829,13 @@
         <v>74</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>342</v>
+        <v>268</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>74</v>
@@ -9012,7 +8844,7 @@
         <v>94</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>345</v>
+        <v>272</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>74</v>
@@ -9021,11 +8853,13 @@
         <v>74</v>
       </c>
     </row>
-    <row r="69" hidden="true">
+    <row r="69">
       <c r="A69" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="B69" s="2"/>
+        <v>244</v>
+      </c>
+      <c r="B69" t="s" s="2">
+        <v>284</v>
+      </c>
       <c r="C69" t="s" s="2">
         <v>74</v>
       </c>
@@ -9034,7 +8868,7 @@
         <v>72</v>
       </c>
       <c r="F69" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G69" t="s" s="2">
         <v>74</v>
@@ -9043,16 +8877,16 @@
         <v>74</v>
       </c>
       <c r="I69" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>84</v>
+        <v>245</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>150</v>
+        <v>246</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>151</v>
+        <v>247</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -9103,44 +8937,44 @@
         <v>74</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>152</v>
+        <v>244</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG69" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="AH69" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI69" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>74</v>
+        <v>249</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>145</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="70" hidden="true">
+    <row r="70">
       <c r="A70" t="s" s="2">
-        <v>347</v>
+        <v>250</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F70" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G70" t="s" s="2">
         <v>74</v>
@@ -9152,17 +8986,15 @@
         <v>74</v>
       </c>
       <c r="J70" t="s" s="2">
-        <v>128</v>
+        <v>84</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>129</v>
+        <v>146</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M70" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="M70" s="2"/>
       <c r="N70" s="2"/>
       <c r="O70" t="s" s="2">
         <v>74</v>
@@ -9211,19 +9043,19 @@
         <v>74</v>
       </c>
       <c r="AE70" t="s" s="2">
-        <v>157</v>
+        <v>148</v>
       </c>
       <c r="AF70" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG70" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AH70" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI70" t="s" s="2">
-        <v>133</v>
+        <v>74</v>
       </c>
       <c r="AJ70" t="s" s="2">
         <v>74</v>
@@ -9232,16 +9064,16 @@
         <v>74</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="71" hidden="true">
+    <row r="71">
       <c r="A71" t="s" s="2">
-        <v>348</v>
+        <v>251</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
-        <v>322</v>
+        <v>127</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9254,26 +9086,24 @@
         <v>74</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I71" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J71" t="s" s="2">
         <v>128</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>323</v>
+        <v>129</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>324</v>
+        <v>150</v>
       </c>
       <c r="M71" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="N71" t="s" s="2">
-        <v>137</v>
-      </c>
+      <c r="N71" s="2"/>
       <c r="O71" t="s" s="2">
         <v>74</v>
       </c>
@@ -9321,7 +9151,7 @@
         <v>74</v>
       </c>
       <c r="AE71" t="s" s="2">
-        <v>325</v>
+        <v>154</v>
       </c>
       <c r="AF71" t="s" s="2">
         <v>72</v>
@@ -9342,44 +9172,48 @@
         <v>74</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>125</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="72" hidden="true">
+    <row r="72">
       <c r="A72" t="s" s="2">
-        <v>349</v>
+        <v>252</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>74</v>
+        <v>253</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F72" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G72" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H72" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I72" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J72" t="s" s="2">
-        <v>169</v>
+        <v>128</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>350</v>
+        <v>254</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>351</v>
-      </c>
-      <c r="M72" s="2"/>
-      <c r="N72" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="M72" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N72" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O72" t="s" s="2">
         <v>74</v>
       </c>
@@ -9403,13 +9237,13 @@
         <v>74</v>
       </c>
       <c r="W72" t="s" s="2">
-        <v>223</v>
+        <v>74</v>
       </c>
       <c r="X72" t="s" s="2">
-        <v>352</v>
+        <v>74</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>353</v>
+        <v>74</v>
       </c>
       <c r="Z72" t="s" s="2">
         <v>74</v>
@@ -9427,33 +9261,33 @@
         <v>74</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>349</v>
+        <v>256</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="AG72" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="AH72" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI72" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ72" t="s" s="2">
-        <v>354</v>
+        <v>74</v>
       </c>
       <c r="AK72" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>74</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="73" hidden="true">
+    <row r="73">
       <c r="A73" t="s" s="2">
-        <v>355</v>
+        <v>257</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9461,7 +9295,7 @@
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="F73" t="s" s="2">
         <v>82</v>
@@ -9473,16 +9307,16 @@
         <v>74</v>
       </c>
       <c r="I73" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J73" t="s" s="2">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>150</v>
+        <v>258</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>151</v>
+        <v>259</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9494,7 +9328,7 @@
         <v>74</v>
       </c>
       <c r="R73" t="s" s="2">
-        <v>74</v>
+        <v>285</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>74</v>
@@ -9509,13 +9343,13 @@
         <v>74</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>74</v>
+        <v>217</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>74</v>
+        <v>260</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>74</v>
+        <v>261</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>74</v>
@@ -9533,10 +9367,10 @@
         <v>74</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>152</v>
+        <v>257</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>82</v>
@@ -9545,32 +9379,32 @@
         <v>74</v>
       </c>
       <c r="AI73" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>74</v>
+        <v>262</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>145</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="74" hidden="true">
+    <row r="74">
       <c r="A74" t="s" s="2">
-        <v>356</v>
+        <v>263</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F74" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G74" t="s" s="2">
         <v>74</v>
@@ -9579,20 +9413,18 @@
         <v>74</v>
       </c>
       <c r="I74" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>128</v>
+        <v>286</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>129</v>
+        <v>265</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M74" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>266</v>
+      </c>
+      <c r="M74" s="2"/>
       <c r="N74" s="2"/>
       <c r="O74" t="s" s="2">
         <v>74</v>
@@ -9629,45 +9461,45 @@
         <v>74</v>
       </c>
       <c r="AA74" t="s" s="2">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="AB74" t="s" s="2">
-        <v>156</v>
+        <v>74</v>
       </c>
       <c r="AC74" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD74" t="s" s="2">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>157</v>
+        <v>263</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI74" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>74</v>
+        <v>267</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>145</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="75" hidden="true">
+    <row r="75">
       <c r="A75" t="s" s="2">
-        <v>357</v>
+        <v>268</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9678,7 +9510,7 @@
         <v>72</v>
       </c>
       <c r="F75" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G75" t="s" s="2">
         <v>74</v>
@@ -9690,20 +9522,16 @@
         <v>83</v>
       </c>
       <c r="J75" t="s" s="2">
-        <v>230</v>
+        <v>165</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>231</v>
+        <v>269</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M75" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N75" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>270</v>
+      </c>
+      <c r="M75" s="2"/>
+      <c r="N75" s="2"/>
       <c r="O75" t="s" s="2">
         <v>74</v>
       </c>
@@ -9727,35 +9555,37 @@
         <v>74</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>74</v>
+        <v>206</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>74</v>
+        <v>271</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AA75" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AB75" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AB75" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AC75" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD75" t="s" s="2">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>235</v>
+        <v>268</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>74</v>
@@ -9764,21 +9594,21 @@
         <v>94</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>74</v>
+        <v>272</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>236</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="76" hidden="true">
+    <row r="76">
       <c r="A76" t="s" s="2">
-        <v>357</v>
+        <v>244</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>146</v>
+        <v>287</v>
       </c>
       <c r="C76" t="s" s="2">
         <v>74</v>
@@ -9800,20 +9630,16 @@
         <v>83</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>147</v>
+        <v>246</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M76" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N76" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>247</v>
+      </c>
+      <c r="M76" s="2"/>
+      <c r="N76" s="2"/>
       <c r="O76" t="s" s="2">
         <v>74</v>
       </c>
@@ -9861,7 +9687,7 @@
         <v>74</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>235</v>
+        <v>244</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>72</v>
@@ -9876,18 +9702,18 @@
         <v>94</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>74</v>
+        <v>249</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>236</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="77" hidden="true">
+    <row r="77">
       <c r="A77" t="s" s="2">
-        <v>358</v>
+        <v>250</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9910,13 +9736,13 @@
         <v>74</v>
       </c>
       <c r="J77" t="s" s="2">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="M77" s="2"/>
       <c r="N77" s="2"/>
@@ -9967,7 +9793,7 @@
         <v>74</v>
       </c>
       <c r="AE77" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="AF77" t="s" s="2">
         <v>72</v>
@@ -9988,12 +9814,12 @@
         <v>74</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="78" hidden="true">
+    <row r="78">
       <c r="A78" t="s" s="2">
-        <v>359</v>
+        <v>251</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -10022,7 +9848,7 @@
         <v>129</v>
       </c>
       <c r="L78" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M78" t="s" s="2">
         <v>131</v>
@@ -10063,19 +9889,19 @@
         <v>74</v>
       </c>
       <c r="AA78" t="s" s="2">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="AB78" t="s" s="2">
-        <v>156</v>
+        <v>74</v>
       </c>
       <c r="AC78" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD78" t="s" s="2">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="AE78" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="AF78" t="s" s="2">
         <v>72</v>
@@ -10096,47 +9922,47 @@
         <v>74</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="79" hidden="true">
+    <row r="79">
       <c r="A79" t="s" s="2">
-        <v>360</v>
+        <v>252</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>74</v>
+        <v>253</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F79" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G79" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H79" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I79" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J79" t="s" s="2">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>243</v>
+        <v>131</v>
       </c>
       <c r="N79" t="s" s="2">
-        <v>244</v>
+        <v>137</v>
       </c>
       <c r="O79" t="s" s="2">
         <v>74</v>
@@ -10146,7 +9972,7 @@
         <v>74</v>
       </c>
       <c r="R79" t="s" s="2">
-        <v>245</v>
+        <v>74</v>
       </c>
       <c r="S79" t="s" s="2">
         <v>74</v>
@@ -10185,19 +10011,19 @@
         <v>74</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG79" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="AH79" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI79" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ79" t="s" s="2">
         <v>74</v>
@@ -10206,12 +10032,12 @@
         <v>74</v>
       </c>
       <c r="AL79" t="s" s="2">
-        <v>247</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="80" hidden="true">
+    <row r="80">
       <c r="A80" t="s" s="2">
-        <v>361</v>
+        <v>257</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10219,7 +10045,7 @@
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="F80" t="s" s="2">
         <v>82</v>
@@ -10234,17 +10060,15 @@
         <v>83</v>
       </c>
       <c r="J80" t="s" s="2">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>249</v>
+        <v>258</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M80" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>259</v>
+      </c>
+      <c r="M80" s="2"/>
       <c r="N80" s="2"/>
       <c r="O80" t="s" s="2">
         <v>74</v>
@@ -10254,7 +10078,7 @@
         <v>74</v>
       </c>
       <c r="R80" t="s" s="2">
-        <v>74</v>
+        <v>288</v>
       </c>
       <c r="S80" t="s" s="2">
         <v>74</v>
@@ -10269,13 +10093,13 @@
         <v>74</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>74</v>
+        <v>217</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>74</v>
+        <v>260</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>74</v>
+        <v>261</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>74</v>
@@ -10293,10 +10117,10 @@
         <v>74</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>82</v>
@@ -10308,18 +10132,18 @@
         <v>94</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>74</v>
+        <v>262</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>253</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="81" hidden="true">
+    <row r="81">
       <c r="A81" t="s" s="2">
-        <v>362</v>
+        <v>263</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10327,7 +10151,7 @@
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F81" t="s" s="2">
         <v>82</v>
@@ -10342,18 +10166,16 @@
         <v>83</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>102</v>
+        <v>289</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="M81" s="2"/>
-      <c r="N81" t="s" s="2">
-        <v>257</v>
-      </c>
+      <c r="N81" s="2"/>
       <c r="O81" t="s" s="2">
         <v>74</v>
       </c>
@@ -10389,19 +10211,17 @@
         <v>74</v>
       </c>
       <c r="AA81" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB81" t="s" s="2">
-        <v>74</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="AB81" s="2"/>
       <c r="AC81" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD81" t="s" s="2">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>258</v>
+        <v>263</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>72</v>
@@ -10416,20 +10236,22 @@
         <v>94</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>74</v>
+        <v>267</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>259</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="82" hidden="true">
+    <row r="82">
       <c r="A82" t="s" s="2">
-        <v>363</v>
-      </c>
-      <c r="B82" s="2"/>
+        <v>263</v>
+      </c>
+      <c r="B82" t="s" s="2">
+        <v>291</v>
+      </c>
       <c r="C82" t="s" s="2">
         <v>74</v>
       </c>
@@ -10450,18 +10272,16 @@
         <v>83</v>
       </c>
       <c r="J82" t="s" s="2">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="M82" s="2"/>
-      <c r="N82" t="s" s="2">
-        <v>263</v>
-      </c>
+      <c r="N82" s="2"/>
       <c r="O82" t="s" s="2">
         <v>74</v>
       </c>
@@ -10509,7 +10329,7 @@
         <v>74</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>72</v>
@@ -10524,18 +10344,18 @@
         <v>94</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>74</v>
+        <v>267</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL82" t="s" s="2">
-        <v>265</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="83" hidden="true">
+    <row r="83">
       <c r="A83" t="s" s="2">
-        <v>364</v>
+        <v>292</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10555,23 +10375,19 @@
         <v>74</v>
       </c>
       <c r="I83" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J83" t="s" s="2">
-        <v>267</v>
+        <v>145</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>268</v>
+        <v>146</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>269</v>
-      </c>
-      <c r="M83" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N83" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="M83" s="2"/>
+      <c r="N83" s="2"/>
       <c r="O83" t="s" s="2">
         <v>74</v>
       </c>
@@ -10619,7 +10435,7 @@
         <v>74</v>
       </c>
       <c r="AE83" t="s" s="2">
-        <v>272</v>
+        <v>148</v>
       </c>
       <c r="AF83" t="s" s="2">
         <v>72</v>
@@ -10631,7 +10447,7 @@
         <v>74</v>
       </c>
       <c r="AI83" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ83" t="s" s="2">
         <v>74</v>
@@ -10640,23 +10456,23 @@
         <v>74</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>273</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="84" hidden="true">
+    <row r="84">
       <c r="A84" t="s" s="2">
-        <v>365</v>
+        <v>293</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F84" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>74</v>
@@ -10665,23 +10481,21 @@
         <v>74</v>
       </c>
       <c r="I84" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J84" t="s" s="2">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>275</v>
+        <v>129</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>276</v>
+        <v>150</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>277</v>
-      </c>
-      <c r="N84" t="s" s="2">
-        <v>278</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N84" s="2"/>
       <c r="O84" t="s" s="2">
         <v>74</v>
       </c>
@@ -10717,31 +10531,31 @@
         <v>74</v>
       </c>
       <c r="AA84" t="s" s="2">
-        <v>74</v>
+        <v>151</v>
       </c>
       <c r="AB84" t="s" s="2">
-        <v>74</v>
+        <v>152</v>
       </c>
       <c r="AC84" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD84" t="s" s="2">
-        <v>74</v>
+        <v>153</v>
       </c>
       <c r="AE84" t="s" s="2">
-        <v>279</v>
+        <v>154</v>
       </c>
       <c r="AF84" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG84" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="AH84" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI84" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ84" t="s" s="2">
         <v>74</v>
@@ -10750,12 +10564,12 @@
         <v>74</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>280</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="85" hidden="true">
+    <row r="85">
       <c r="A85" t="s" s="2">
-        <v>366</v>
+        <v>294</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10766,7 +10580,7 @@
         <v>72</v>
       </c>
       <c r="F85" t="s" s="2">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="G85" t="s" s="2">
         <v>74</v>
@@ -10778,16 +10592,20 @@
         <v>83</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>367</v>
+        <v>295</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>368</v>
+        <v>296</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="M85" s="2"/>
-      <c r="N85" s="2"/>
+        <v>297</v>
+      </c>
+      <c r="M85" t="s" s="2">
+        <v>298</v>
+      </c>
+      <c r="N85" t="s" s="2">
+        <v>299</v>
+      </c>
       <c r="O85" t="s" s="2">
         <v>74</v>
       </c>
@@ -10835,13 +10653,13 @@
         <v>74</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>366</v>
+        <v>300</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG85" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="AH85" t="s" s="2">
         <v>74</v>
@@ -10850,18 +10668,18 @@
         <v>94</v>
       </c>
       <c r="AJ85" t="s" s="2">
-        <v>370</v>
+        <v>74</v>
       </c>
       <c r="AK85" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>74</v>
+        <v>301</v>
       </c>
     </row>
-    <row r="86" hidden="true">
+    <row r="86">
       <c r="A86" t="s" s="2">
-        <v>371</v>
+        <v>302</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10869,7 +10687,7 @@
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="F86" t="s" s="2">
         <v>82</v>
@@ -10884,16 +10702,20 @@
         <v>83</v>
       </c>
       <c r="J86" t="s" s="2">
-        <v>367</v>
+        <v>145</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>372</v>
+        <v>303</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>373</v>
-      </c>
-      <c r="M86" s="2"/>
-      <c r="N86" s="2"/>
+        <v>304</v>
+      </c>
+      <c r="M86" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="N86" t="s" s="2">
+        <v>306</v>
+      </c>
       <c r="O86" t="s" s="2">
         <v>74</v>
       </c>
@@ -10941,7 +10763,7 @@
         <v>74</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>371</v>
+        <v>307</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>72</v>
@@ -10956,18 +10778,18 @@
         <v>94</v>
       </c>
       <c r="AJ86" t="s" s="2">
-        <v>374</v>
+        <v>74</v>
       </c>
       <c r="AK86" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>74</v>
+        <v>308</v>
       </c>
     </row>
-    <row r="87" hidden="true">
+    <row r="87">
       <c r="A87" t="s" s="2">
-        <v>375</v>
+        <v>268</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -10990,13 +10812,13 @@
         <v>83</v>
       </c>
       <c r="J87" t="s" s="2">
-        <v>367</v>
+        <v>165</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>376</v>
+        <v>269</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>377</v>
+        <v>270</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -11023,13 +10845,13 @@
         <v>74</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>74</v>
+        <v>160</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>74</v>
+        <v>206</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>74</v>
+        <v>271</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>74</v>
@@ -11047,7 +10869,7 @@
         <v>74</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>375</v>
+        <v>268</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>72</v>
@@ -11062,7 +10884,7 @@
         <v>94</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>378</v>
+        <v>272</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>74</v>
@@ -11071,9 +10893,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="88" hidden="true">
+    <row r="88">
       <c r="A88" t="s" s="2">
-        <v>379</v>
+        <v>309</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -11081,10 +10903,10 @@
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="F88" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G88" t="s" s="2">
         <v>74</v>
@@ -11096,13 +10918,13 @@
         <v>83</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>380</v>
+        <v>245</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>381</v>
+        <v>310</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>382</v>
+        <v>311</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -11117,7 +10939,7 @@
         <v>74</v>
       </c>
       <c r="S88" t="s" s="2">
-        <v>74</v>
+        <v>312</v>
       </c>
       <c r="T88" t="s" s="2">
         <v>74</v>
@@ -11153,13 +10975,13 @@
         <v>74</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>379</v>
+        <v>309</v>
       </c>
       <c r="AF88" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>74</v>
@@ -11168,7 +10990,7 @@
         <v>94</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>383</v>
+        <v>313</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>74</v>
@@ -11177,9 +10999,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="89" hidden="true">
+    <row r="89">
       <c r="A89" t="s" s="2">
-        <v>384</v>
+        <v>314</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11199,16 +11021,16 @@
         <v>74</v>
       </c>
       <c r="I89" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J89" t="s" s="2">
-        <v>385</v>
+        <v>84</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>386</v>
+        <v>146</v>
       </c>
       <c r="L89" t="s" s="2">
-        <v>387</v>
+        <v>147</v>
       </c>
       <c r="M89" s="2"/>
       <c r="N89" s="2"/>
@@ -11259,7 +11081,7 @@
         <v>74</v>
       </c>
       <c r="AE89" t="s" s="2">
-        <v>384</v>
+        <v>148</v>
       </c>
       <c r="AF89" t="s" s="2">
         <v>72</v>
@@ -11271,25 +11093,25 @@
         <v>74</v>
       </c>
       <c r="AI89" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ89" t="s" s="2">
-        <v>388</v>
+        <v>74</v>
       </c>
       <c r="AK89" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL89" t="s" s="2">
-        <v>74</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="90" hidden="true">
+    <row r="90">
       <c r="A90" t="s" s="2">
-        <v>389</v>
+        <v>315</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -11305,18 +11127,20 @@
         <v>74</v>
       </c>
       <c r="I90" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J90" t="s" s="2">
-        <v>315</v>
+        <v>128</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>390</v>
+        <v>129</v>
       </c>
       <c r="L90" t="s" s="2">
-        <v>391</v>
-      </c>
-      <c r="M90" s="2"/>
+        <v>150</v>
+      </c>
+      <c r="M90" t="s" s="2">
+        <v>131</v>
+      </c>
       <c r="N90" s="2"/>
       <c r="O90" t="s" s="2">
         <v>74</v>
@@ -11365,7 +11189,7 @@
         <v>74</v>
       </c>
       <c r="AE90" t="s" s="2">
-        <v>389</v>
+        <v>154</v>
       </c>
       <c r="AF90" t="s" s="2">
         <v>72</v>
@@ -11377,53 +11201,57 @@
         <v>74</v>
       </c>
       <c r="AI90" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>145</v>
+        <v>74</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL90" t="s" s="2">
-        <v>74</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="91" hidden="true">
+    <row r="91">
       <c r="A91" t="s" s="2">
-        <v>392</v>
+        <v>316</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>74</v>
+        <v>253</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F91" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G91" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H91" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I91" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J91" t="s" s="2">
-        <v>84</v>
+        <v>128</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>150</v>
+        <v>254</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>151</v>
-      </c>
-      <c r="M91" s="2"/>
-      <c r="N91" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="M91" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N91" t="s" s="2">
+        <v>137</v>
+      </c>
       <c r="O91" t="s" s="2">
         <v>74</v>
       </c>
@@ -11471,19 +11299,19 @@
         <v>74</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>152</v>
+        <v>256</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG91" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="AH91" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI91" t="s" s="2">
-        <v>74</v>
+        <v>133</v>
       </c>
       <c r="AJ91" t="s" s="2">
         <v>74</v>
@@ -11492,23 +11320,23 @@
         <v>74</v>
       </c>
       <c r="AL91" t="s" s="2">
-        <v>145</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="92" hidden="true">
+    <row r="92">
       <c r="A92" t="s" s="2">
-        <v>393</v>
+        <v>317</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="F92" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G92" t="s" s="2">
         <v>74</v>
@@ -11517,20 +11345,18 @@
         <v>74</v>
       </c>
       <c r="I92" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J92" t="s" s="2">
-        <v>128</v>
+        <v>165</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>129</v>
+        <v>318</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M92" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="M92" s="2"/>
       <c r="N92" s="2"/>
       <c r="O92" t="s" s="2">
         <v>74</v>
@@ -11555,13 +11381,13 @@
         <v>74</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>74</v>
+        <v>217</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>74</v>
+        <v>320</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>74</v>
+        <v>321</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>74</v>
@@ -11579,69 +11405,65 @@
         <v>74</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>157</v>
+        <v>317</v>
       </c>
       <c r="AF92" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="AG92" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AH92" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI92" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>74</v>
+        <v>322</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL92" t="s" s="2">
-        <v>145</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="93" hidden="true">
+    <row r="93">
       <c r="A93" t="s" s="2">
-        <v>394</v>
+        <v>323</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
-        <v>322</v>
+        <v>74</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F93" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G93" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H93" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="I93" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>128</v>
+        <v>283</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="M93" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N93" t="s" s="2">
-        <v>137</v>
-      </c>
+        <v>325</v>
+      </c>
+      <c r="M93" s="2"/>
+      <c r="N93" s="2"/>
       <c r="O93" t="s" s="2">
         <v>74</v>
       </c>
@@ -11689,33 +11511,33 @@
         <v>74</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG93" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AH93" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI93" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>74</v>
+        <v>326</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL93" t="s" s="2">
-        <v>125</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="94" hidden="true">
+    <row r="94">
       <c r="A94" t="s" s="2">
-        <v>395</v>
+        <v>327</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -11723,7 +11545,7 @@
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F94" t="s" s="2">
         <v>82</v>
@@ -11738,13 +11560,13 @@
         <v>83</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>169</v>
+        <v>283</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>396</v>
+        <v>328</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>397</v>
+        <v>329</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -11771,13 +11593,13 @@
         <v>74</v>
       </c>
       <c r="W94" t="s" s="2">
-        <v>223</v>
+        <v>74</v>
       </c>
       <c r="X94" t="s" s="2">
-        <v>398</v>
+        <v>74</v>
       </c>
       <c r="Y94" t="s" s="2">
-        <v>399</v>
+        <v>74</v>
       </c>
       <c r="Z94" t="s" s="2">
         <v>74</v>
@@ -11795,10 +11617,10 @@
         <v>74</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>395</v>
+        <v>327</v>
       </c>
       <c r="AF94" t="s" s="2">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="AG94" t="s" s="2">
         <v>82</v>
@@ -11810,7 +11632,7 @@
         <v>94</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>145</v>
+        <v>330</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>74</v>
@@ -11819,9 +11641,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="95" hidden="true">
+    <row r="95">
       <c r="A95" t="s" s="2">
-        <v>400</v>
+        <v>331</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -11841,16 +11663,16 @@
         <v>74</v>
       </c>
       <c r="I95" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>149</v>
+        <v>283</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>150</v>
+        <v>332</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>151</v>
+        <v>333</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -11901,7 +11723,7 @@
         <v>74</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>152</v>
+        <v>331</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>72</v>
@@ -11913,32 +11735,32 @@
         <v>74</v>
       </c>
       <c r="AI95" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>74</v>
+        <v>334</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL95" t="s" s="2">
-        <v>145</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="96" hidden="true">
+    <row r="96">
       <c r="A96" t="s" s="2">
-        <v>401</v>
+        <v>335</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F96" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G96" t="s" s="2">
         <v>74</v>
@@ -11947,20 +11769,18 @@
         <v>74</v>
       </c>
       <c r="I96" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>128</v>
+        <v>336</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>129</v>
+        <v>337</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M96" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>338</v>
+      </c>
+      <c r="M96" s="2"/>
       <c r="N96" s="2"/>
       <c r="O96" t="s" s="2">
         <v>74</v>
@@ -11997,45 +11817,45 @@
         <v>74</v>
       </c>
       <c r="AA96" t="s" s="2">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="AB96" t="s" s="2">
-        <v>156</v>
+        <v>74</v>
       </c>
       <c r="AC96" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD96" t="s" s="2">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>157</v>
+        <v>335</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI96" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>74</v>
+        <v>339</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL96" t="s" s="2">
-        <v>145</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="97" hidden="true">
+    <row r="97">
       <c r="A97" t="s" s="2">
-        <v>402</v>
+        <v>340</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -12046,7 +11866,7 @@
         <v>72</v>
       </c>
       <c r="F97" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G97" t="s" s="2">
         <v>74</v>
@@ -12058,20 +11878,16 @@
         <v>83</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>230</v>
+        <v>341</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>231</v>
+        <v>342</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>232</v>
-      </c>
-      <c r="M97" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N97" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>343</v>
+      </c>
+      <c r="M97" s="2"/>
+      <c r="N97" s="2"/>
       <c r="O97" t="s" s="2">
         <v>74</v>
       </c>
@@ -12107,23 +11923,25 @@
         <v>74</v>
       </c>
       <c r="AA97" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="AB97" s="2"/>
+        <v>74</v>
+      </c>
+      <c r="AB97" t="s" s="2">
+        <v>74</v>
+      </c>
       <c r="AC97" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD97" t="s" s="2">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>235</v>
+        <v>340</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG97" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AH97" t="s" s="2">
         <v>74</v>
@@ -12132,22 +11950,20 @@
         <v>94</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>74</v>
+        <v>344</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL97" t="s" s="2">
-        <v>236</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="98" hidden="true">
+    <row r="98">
       <c r="A98" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="B98" t="s" s="2">
-        <v>146</v>
-      </c>
+        <v>345</v>
+      </c>
+      <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
         <v>74</v>
       </c>
@@ -12168,20 +11984,16 @@
         <v>83</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>230</v>
+        <v>245</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>147</v>
+        <v>346</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>237</v>
-      </c>
-      <c r="M98" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="N98" t="s" s="2">
-        <v>234</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="M98" s="2"/>
+      <c r="N98" s="2"/>
       <c r="O98" t="s" s="2">
         <v>74</v>
       </c>
@@ -12229,7 +12041,7 @@
         <v>74</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>235</v>
+        <v>345</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>72</v>
@@ -12244,18 +12056,18 @@
         <v>94</v>
       </c>
       <c r="AJ98" t="s" s="2">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="AK98" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL98" t="s" s="2">
-        <v>236</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="99" hidden="true">
+    <row r="99">
       <c r="A99" t="s" s="2">
-        <v>403</v>
+        <v>348</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12278,13 +12090,13 @@
         <v>74</v>
       </c>
       <c r="J99" t="s" s="2">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="L99" t="s" s="2">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="M99" s="2"/>
       <c r="N99" s="2"/>
@@ -12335,7 +12147,7 @@
         <v>74</v>
       </c>
       <c r="AE99" t="s" s="2">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="AF99" t="s" s="2">
         <v>72</v>
@@ -12356,12 +12168,12 @@
         <v>74</v>
       </c>
       <c r="AL99" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="100" hidden="true">
+    <row r="100">
       <c r="A100" t="s" s="2">
-        <v>404</v>
+        <v>349</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12390,7 +12202,7 @@
         <v>129</v>
       </c>
       <c r="L100" t="s" s="2">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="M100" t="s" s="2">
         <v>131</v>
@@ -12431,19 +12243,19 @@
         <v>74</v>
       </c>
       <c r="AA100" t="s" s="2">
-        <v>155</v>
+        <v>74</v>
       </c>
       <c r="AB100" t="s" s="2">
-        <v>156</v>
+        <v>74</v>
       </c>
       <c r="AC100" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AD100" t="s" s="2">
-        <v>144</v>
+        <v>74</v>
       </c>
       <c r="AE100" t="s" s="2">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="AF100" t="s" s="2">
         <v>72</v>
@@ -12464,47 +12276,47 @@
         <v>74</v>
       </c>
       <c r="AL100" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="101" hidden="true">
+    <row r="101">
       <c r="A101" t="s" s="2">
-        <v>405</v>
+        <v>350</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
-        <v>74</v>
+        <v>253</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F101" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G101" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H101" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I101" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J101" t="s" s="2">
-        <v>96</v>
+        <v>128</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>241</v>
+        <v>254</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>242</v>
+        <v>255</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>243</v>
+        <v>131</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>244</v>
+        <v>137</v>
       </c>
       <c r="O101" t="s" s="2">
         <v>74</v>
@@ -12514,7 +12326,7 @@
         <v>74</v>
       </c>
       <c r="R101" t="s" s="2">
-        <v>245</v>
+        <v>74</v>
       </c>
       <c r="S101" t="s" s="2">
         <v>74</v>
@@ -12553,19 +12365,19 @@
         <v>74</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>246</v>
+        <v>256</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI101" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ101" t="s" s="2">
         <v>74</v>
@@ -12574,12 +12386,12 @@
         <v>74</v>
       </c>
       <c r="AL101" t="s" s="2">
-        <v>247</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="102" hidden="true">
+    <row r="102">
       <c r="A102" t="s" s="2">
-        <v>406</v>
+        <v>351</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -12587,7 +12399,7 @@
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="F102" t="s" s="2">
         <v>82</v>
@@ -12602,17 +12414,15 @@
         <v>83</v>
       </c>
       <c r="J102" t="s" s="2">
-        <v>149</v>
+        <v>165</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>249</v>
+        <v>352</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="M102" t="s" s="2">
-        <v>251</v>
-      </c>
+        <v>353</v>
+      </c>
+      <c r="M102" s="2"/>
       <c r="N102" s="2"/>
       <c r="O102" t="s" s="2">
         <v>74</v>
@@ -12637,13 +12447,13 @@
         <v>74</v>
       </c>
       <c r="W102" t="s" s="2">
-        <v>74</v>
+        <v>217</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>74</v>
+        <v>354</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>74</v>
+        <v>355</v>
       </c>
       <c r="Z102" t="s" s="2">
         <v>74</v>
@@ -12661,10 +12471,10 @@
         <v>74</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>252</v>
+        <v>351</v>
       </c>
       <c r="AF102" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="AG102" t="s" s="2">
         <v>82</v>
@@ -12676,18 +12486,18 @@
         <v>94</v>
       </c>
       <c r="AJ102" t="s" s="2">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="AK102" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL102" t="s" s="2">
-        <v>253</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="103" hidden="true">
+    <row r="103">
       <c r="A103" t="s" s="2">
-        <v>407</v>
+        <v>356</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -12695,10 +12505,10 @@
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="F103" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G103" t="s" s="2">
         <v>74</v>
@@ -12710,18 +12520,16 @@
         <v>83</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>102</v>
+        <v>245</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>255</v>
+        <v>357</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>256</v>
+        <v>358</v>
       </c>
       <c r="M103" s="2"/>
-      <c r="N103" t="s" s="2">
-        <v>257</v>
-      </c>
+      <c r="N103" s="2"/>
       <c r="O103" t="s" s="2">
         <v>74</v>
       </c>
@@ -12769,13 +12577,13 @@
         <v>74</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>258</v>
+        <v>356</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>74</v>
@@ -12784,18 +12592,18 @@
         <v>94</v>
       </c>
       <c r="AJ103" t="s" s="2">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="AK103" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL103" t="s" s="2">
-        <v>259</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="104" hidden="true">
+    <row r="104">
       <c r="A104" t="s" s="2">
-        <v>408</v>
+        <v>359</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -12815,21 +12623,19 @@
         <v>74</v>
       </c>
       <c r="I104" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J104" t="s" s="2">
-        <v>149</v>
+        <v>84</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>261</v>
+        <v>146</v>
       </c>
       <c r="L104" t="s" s="2">
-        <v>262</v>
+        <v>147</v>
       </c>
       <c r="M104" s="2"/>
-      <c r="N104" t="s" s="2">
-        <v>263</v>
-      </c>
+      <c r="N104" s="2"/>
       <c r="O104" t="s" s="2">
         <v>74</v>
       </c>
@@ -12877,7 +12683,7 @@
         <v>74</v>
       </c>
       <c r="AE104" t="s" s="2">
-        <v>264</v>
+        <v>148</v>
       </c>
       <c r="AF104" t="s" s="2">
         <v>72</v>
@@ -12889,7 +12695,7 @@
         <v>74</v>
       </c>
       <c r="AI104" t="s" s="2">
-        <v>94</v>
+        <v>74</v>
       </c>
       <c r="AJ104" t="s" s="2">
         <v>74</v>
@@ -12898,23 +12704,23 @@
         <v>74</v>
       </c>
       <c r="AL104" t="s" s="2">
-        <v>265</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="105" hidden="true">
+    <row r="105">
       <c r="A105" t="s" s="2">
-        <v>409</v>
+        <v>360</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
-        <v>74</v>
+        <v>127</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F105" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G105" t="s" s="2">
         <v>74</v>
@@ -12923,23 +12729,21 @@
         <v>74</v>
       </c>
       <c r="I105" t="s" s="2">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="J105" t="s" s="2">
-        <v>267</v>
+        <v>128</v>
       </c>
       <c r="K105" t="s" s="2">
-        <v>268</v>
+        <v>129</v>
       </c>
       <c r="L105" t="s" s="2">
-        <v>269</v>
+        <v>150</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>270</v>
-      </c>
-      <c r="N105" t="s" s="2">
-        <v>271</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="N105" s="2"/>
       <c r="O105" t="s" s="2">
         <v>74</v>
       </c>
@@ -12987,19 +12791,19 @@
         <v>74</v>
       </c>
       <c r="AE105" t="s" s="2">
-        <v>272</v>
+        <v>154</v>
       </c>
       <c r="AF105" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI105" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ105" t="s" s="2">
         <v>74</v>
@@ -13008,47 +12812,47 @@
         <v>74</v>
       </c>
       <c r="AL105" t="s" s="2">
-        <v>273</v>
+        <v>143</v>
       </c>
     </row>
-    <row r="106" hidden="true">
+    <row r="106">
       <c r="A106" t="s" s="2">
-        <v>410</v>
+        <v>361</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
-        <v>74</v>
+        <v>253</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F106" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="G106" t="s" s="2">
         <v>74</v>
       </c>
       <c r="H106" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="I106" t="s" s="2">
         <v>83</v>
       </c>
       <c r="J106" t="s" s="2">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>275</v>
+        <v>254</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>276</v>
+        <v>255</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>277</v>
+        <v>131</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>278</v>
+        <v>137</v>
       </c>
       <c r="O106" t="s" s="2">
         <v>74</v>
@@ -13097,19 +12901,19 @@
         <v>74</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI106" t="s" s="2">
-        <v>94</v>
+        <v>133</v>
       </c>
       <c r="AJ106" t="s" s="2">
         <v>74</v>
@@ -13118,12 +12922,12 @@
         <v>74</v>
       </c>
       <c r="AL106" t="s" s="2">
-        <v>280</v>
+        <v>125</v>
       </c>
     </row>
-    <row r="107" hidden="true">
+    <row r="107">
       <c r="A107" t="s" s="2">
-        <v>411</v>
+        <v>362</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -13131,10 +12935,10 @@
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="F107" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G107" t="s" s="2">
         <v>74</v>
@@ -13146,13 +12950,13 @@
         <v>83</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>315</v>
+        <v>165</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>412</v>
+        <v>363</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>413</v>
+        <v>364</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
@@ -13179,13 +12983,13 @@
         <v>74</v>
       </c>
       <c r="W107" t="s" s="2">
-        <v>74</v>
+        <v>217</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>74</v>
+        <v>354</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>74</v>
+        <v>365</v>
       </c>
       <c r="Z107" t="s" s="2">
         <v>74</v>
@@ -13203,13 +13007,13 @@
         <v>74</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>411</v>
+        <v>362</v>
       </c>
       <c r="AF107" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="AG107" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AH107" t="s" s="2">
         <v>74</v>
@@ -13218,7 +13022,7 @@
         <v>94</v>
       </c>
       <c r="AJ107" t="s" s="2">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="AK107" t="s" s="2">
         <v>74</v>
@@ -13227,9 +13031,9 @@
         <v>74</v>
       </c>
     </row>
-    <row r="108" hidden="true">
+    <row r="108">
       <c r="A108" t="s" s="2">
-        <v>414</v>
+        <v>366</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13237,7 +13041,7 @@
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="F108" t="s" s="2">
         <v>82</v>
@@ -13249,16 +13053,16 @@
         <v>74</v>
       </c>
       <c r="I108" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>84</v>
+        <v>283</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>150</v>
+        <v>367</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>151</v>
+        <v>368</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -13309,10 +13113,10 @@
         <v>74</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>152</v>
+        <v>366</v>
       </c>
       <c r="AF108" t="s" s="2">
-        <v>72</v>
+        <v>82</v>
       </c>
       <c r="AG108" t="s" s="2">
         <v>82</v>
@@ -13321,32 +13125,32 @@
         <v>74</v>
       </c>
       <c r="AI108" t="s" s="2">
-        <v>74</v>
+        <v>94</v>
       </c>
       <c r="AJ108" t="s" s="2">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="AK108" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL108" t="s" s="2">
-        <v>145</v>
+        <v>74</v>
       </c>
     </row>
-    <row r="109" hidden="true">
+    <row r="109">
       <c r="A109" t="s" s="2">
-        <v>415</v>
+        <v>369</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
-        <v>127</v>
+        <v>74</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
         <v>72</v>
       </c>
       <c r="F109" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="G109" t="s" s="2">
         <v>74</v>
@@ -13355,20 +13159,18 @@
         <v>74</v>
       </c>
       <c r="I109" t="s" s="2">
-        <v>74</v>
+        <v>83</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>128</v>
+        <v>145</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>129</v>
+        <v>370</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="M109" t="s" s="2">
-        <v>131</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="M109" s="2"/>
       <c r="N109" s="2"/>
       <c r="O109" t="s" s="2">
         <v>74</v>
@@ -13417,477 +13219,31 @@
         <v>74</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>157</v>
+        <v>369</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>72</v>
       </c>
       <c r="AG109" t="s" s="2">
-        <v>73</v>
+        <v>82</v>
       </c>
       <c r="AH109" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AI109" t="s" s="2">
-        <v>133</v>
+        <v>94</v>
       </c>
       <c r="AJ109" t="s" s="2">
-        <v>74</v>
+        <v>143</v>
       </c>
       <c r="AK109" t="s" s="2">
         <v>74</v>
       </c>
       <c r="AL109" t="s" s="2">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="110" hidden="true">
-      <c r="A110" t="s" s="2">
-        <v>416</v>
-      </c>
-      <c r="B110" s="2"/>
-      <c r="C110" t="s" s="2">
-        <v>322</v>
-      </c>
-      <c r="D110" s="2"/>
-      <c r="E110" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F110" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="G110" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H110" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="I110" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J110" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="K110" t="s" s="2">
-        <v>323</v>
-      </c>
-      <c r="L110" t="s" s="2">
-        <v>324</v>
-      </c>
-      <c r="M110" t="s" s="2">
-        <v>131</v>
-      </c>
-      <c r="N110" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="O110" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P110" s="2"/>
-      <c r="Q110" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R110" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S110" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T110" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U110" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V110" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W110" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X110" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y110" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z110" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA110" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB110" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC110" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD110" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE110" t="s" s="2">
-        <v>325</v>
-      </c>
-      <c r="AF110" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG110" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="AH110" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI110" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="AJ110" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AK110" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL110" t="s" s="2">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="111" hidden="true">
-      <c r="A111" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="B111" s="2"/>
-      <c r="C111" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D111" s="2"/>
-      <c r="E111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="F111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G111" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H111" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I111" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J111" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="K111" t="s" s="2">
-        <v>418</v>
-      </c>
-      <c r="L111" t="s" s="2">
-        <v>419</v>
-      </c>
-      <c r="M111" s="2"/>
-      <c r="N111" s="2"/>
-      <c r="O111" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P111" s="2"/>
-      <c r="Q111" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R111" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S111" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T111" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U111" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V111" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W111" t="s" s="2">
-        <v>223</v>
-      </c>
-      <c r="X111" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="Y111" t="s" s="2">
-        <v>420</v>
-      </c>
-      <c r="Z111" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA111" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB111" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC111" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD111" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE111" t="s" s="2">
-        <v>417</v>
-      </c>
-      <c r="AF111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AG111" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH111" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI111" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ111" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AK111" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL111" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="112" hidden="true">
-      <c r="A112" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="B112" s="2"/>
-      <c r="C112" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D112" s="2"/>
-      <c r="E112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="F112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G112" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H112" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I112" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J112" t="s" s="2">
-        <v>367</v>
-      </c>
-      <c r="K112" t="s" s="2">
-        <v>422</v>
-      </c>
-      <c r="L112" t="s" s="2">
-        <v>423</v>
-      </c>
-      <c r="M112" s="2"/>
-      <c r="N112" s="2"/>
-      <c r="O112" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P112" s="2"/>
-      <c r="Q112" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R112" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S112" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T112" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U112" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V112" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W112" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X112" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y112" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z112" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA112" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB112" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC112" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD112" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE112" t="s" s="2">
-        <v>421</v>
-      </c>
-      <c r="AF112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AG112" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH112" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI112" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ112" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AK112" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL112" t="s" s="2">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="113" hidden="true">
-      <c r="A113" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="B113" s="2"/>
-      <c r="C113" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="D113" s="2"/>
-      <c r="E113" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="F113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="G113" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="H113" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="I113" t="s" s="2">
-        <v>83</v>
-      </c>
-      <c r="J113" t="s" s="2">
-        <v>149</v>
-      </c>
-      <c r="K113" t="s" s="2">
-        <v>425</v>
-      </c>
-      <c r="L113" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="M113" s="2"/>
-      <c r="N113" s="2"/>
-      <c r="O113" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="P113" s="2"/>
-      <c r="Q113" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="R113" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="S113" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="T113" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="U113" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="V113" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="W113" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="X113" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Y113" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="Z113" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AA113" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AB113" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AC113" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AD113" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AE113" t="s" s="2">
-        <v>424</v>
-      </c>
-      <c r="AF113" t="s" s="2">
-        <v>72</v>
-      </c>
-      <c r="AG113" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="AH113" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AI113" t="s" s="2">
-        <v>94</v>
-      </c>
-      <c r="AJ113" t="s" s="2">
-        <v>145</v>
-      </c>
-      <c r="AK113" t="s" s="2">
-        <v>74</v>
-      </c>
-      <c r="AL113" t="s" s="2">
         <v>74</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AL113">
-    <filterColumn colId="6">
-      <customFilters>
-        <customFilter operator="notEqual" val=" "/>
-      </customFilters>
-    </filterColumn>
-    <filterColumn colId="26">
-      <filters blank="true"/>
-    </filterColumn>
-  </autoFilter>
-  <conditionalFormatting sqref="A2:AI112">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>$G2&lt;&gt;"Y"</formula>
-    </cfRule>
-    <cfRule type="expression" dxfId="1" priority="2">
-      <formula>$Q2&lt;&gt;""</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3695" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3695" uniqueCount="357">
   <si>
     <t>Property</t>
   </si>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-17T13:40:44+00:00</t>
+    <t>2022-03-21T12:30:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -241,14 +241,14 @@
     <t/>
   </si>
   <si>
-    <t>A medicinal product in the final form, suitable for administration - after any mixing of multiple components</t>
+    <t>A medicinal product in the final form which is suitable for administering to a patient (after any mixing of multiple components, dissolution etc. has been performed)</t>
   </si>
   <si>
     <t>A medicinal product in the final form which is suitable for administering to a patient (after any mixing of multiple components, dissolution etc. has been performed).</t>
   </si>
   <si>
-    <t>apd-1:RouteOfAdministration cannot be used when the 'formOf' product already uses MedicinalProductDefinition.route (and vice versa) {(AdministrableProductDefinition.routeOfAdministration.code.count() + AdministrableProductDefinition.formOf.resolve().route.count())  &lt; 2}
-dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
+    <t>dom-2:If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
+dom-3:If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:A resource should have narrative for robust management {text.`div`.exists()}</t>
   </si>
   <si>
     <t>Pharmaceutical Product</t>
@@ -516,7 +516,7 @@
     <t>required</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/identifier-use|4.6.0</t>
+    <t>http://hl7.org/fhir/ValueSet/identifier-use|5.0.0-snapshot1</t>
   </si>
   <si>
     <t>Identifier.use</t>
@@ -657,7 +657,7 @@
     <t>The lifecycle status of an artifact.</t>
   </si>
   <si>
-    <t>http://hl7.org/fhir/ValueSet/publication-status|4.6.0|4.6.0</t>
+    <t>http://hl7.org/fhir/ValueSet/publication-status|5.0.0-snapshot1</t>
   </si>
   <si>
     <t>AdministrableProductDefinition.formOf</t>
@@ -667,10 +667,10 @@
 </t>
   </si>
   <si>
-    <t>References a product from which one or more of the constituent parts of that product can be prepared and used as described by this administrable product</t>
-  </si>
-  <si>
-    <t>References a product from which one or more of the constituent parts of that product can be prepared and used as described by this administrable product.  If this administrable product describes the administration of a crushed tablet, the 'formOf' would be the product representing a distribution containing tablets and possibly also a cream.  This is distinct from the 'producedFrom' which refers to the specific components of the product that are used in this preparation, rather than the product as a whole.</t>
+    <t>The medicinal product that this is a prepared administrable form of. This element is not a reference to the item(s) that make up this administrable form (for which see AdministrableProductDefinition.producedFrom). It is medicinal product as a whole, which may have several components (as well as packaging, devices etc.), that are given to the patient in this final administrable form. A single medicinal product may have several different administrable products (e.g. a tablet and a cream), and these could have different administrable forms (e.g. tablet as oral solid, or tablet crushed)</t>
+  </si>
+  <si>
+    <t>The medicinal product that this is a prepared administrable form of. This element is not a reference to the item(s) that make up this administrable form (for which see AdministrableProductDefinition.producedFrom). It is medicinal product as a whole, which may have several components (as well as packaging, devices etc.), that are given to the patient in this final administrable form. A single medicinal product may have several different administrable products (e.g. a tablet and a cream), and these could have different administrable forms (e.g. tablet as oral solid, or tablet crushed).</t>
   </si>
   <si>
     <t>(link to Medicinal Product)</t>
@@ -679,7 +679,7 @@
     <t>AdministrableProductDefinition.administrableDoseForm</t>
   </si>
   <si>
-    <t>The dose form of the final product after necessary reconstitution or processing</t>
+    <t>The dose form of the final product after necessary reconstitution or processing. Contrasts to the manufactured dose form (see ManufacturedItemDefinition). If the manufactured form was 'powder for solution for injection', the administrable dose form could be 'solution for injection' (once mixed with another item having manufactured form 'solvent for solution for injection')</t>
   </si>
   <si>
     <t>The dose form of the final product after necessary reconstitution or processing. Contrasts to the manufactured dose form (see ManufacturedItemDefinition). If the manufactured form was 'powder for solution for injection', the administrable dose form could be 'solution for injection' (once mixed with another item having manufactured form 'solvent for solution for injection').</t>
@@ -694,22 +694,13 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>Dose form for a medication, in the form suitable for administering to the patient, after mixing, where necessary.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/administrable-dose-form</t>
-  </si>
-  <si>
     <t>Pharmaceutical Product.Administrable Dose Form</t>
   </si>
   <si>
     <t>AdministrableProductDefinition.unitOfPresentation</t>
   </si>
   <si>
-    <t>The presentation type in which this item is given to a patient. e.g. for a spray - 'puff'</t>
+    <t>The presentation type in which this item is given to a patient. e.g. for a spray - 'puff' (as in 'contains 100 mcg per puff'), or for a liquid - 'vial' (as in 'contains 5 ml per vial')</t>
   </si>
   <si>
     <t>The presentation type in which this item is given to a patient. e.g. for a spray - 'puff' (as in 'contains 100 mcg per puff'), or for a liquid - 'vial' (as in 'contains 5 ml per vial').</t>
@@ -724,12 +715,6 @@
 &lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
-    <t>The presentation type in which an administrable medicinal product is given to a patient.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/unit-of-presentation</t>
-  </si>
-  <si>
     <t>Pharmaceutical Product.Unit of Presentation</t>
   </si>
   <si>
@@ -740,10 +725,10 @@
 </t>
   </si>
   <si>
-    <t>Indicates the specific manufactured items that are part of the 'formOf' product that are used in the preparation of this specific administrable form</t>
-  </si>
-  <si>
-    <t>Indicates the specific manufactured items that are part of the 'formOf' product that are used in the preparation of this specific administrable form.  In some cases, an administrable form might use all of the items from the overall product (or there might only be one item), while in other cases, an administrable form might use only a subset of the items available in the overall product.  For example, an administrable form might involve combining a liquid and a powder available as part of an overall product, but not involve applying the also supplied cream.</t>
+    <t>The constituent manufactured item(s) that this administrable product is produced from. Either a single item, or several that are mixed before administration (e.g. a power item and a solvent item, to make a consumable solution). Note the items this is produced from are not raw ingredients (see AdministrableProductDefinition.ingredient), but manufactured medication items (ManufacturedItemDefinitions), which may be combined or prepared and transformed for patient use. The constituent items that this administrable form is produced from are all part of the product (for which see AdministrableProductDefinition.formOf)</t>
+  </si>
+  <si>
+    <t>The constituent manufactured item(s) that this administrable product is produced from. Either a single item, or several that are mixed before administration (e.g. a power item and a solvent item, to make a consumable solution). Note the items this is produced from are not raw ingredients (see AdministrableProductDefinition.ingredient), but manufactured medication items (ManufacturedItemDefinitions), which may be combined or prepared and transformed for patient use. The constituent items that this administrable form is produced from are all part of the product (for which see AdministrableProductDefinition.formOf).</t>
   </si>
   <si>
     <t>n/a (this is the link from Pharmaceutical Product to the Manufactured Item(s))</t>
@@ -752,16 +737,10 @@
     <t>AdministrableProductDefinition.ingredient</t>
   </si>
   <si>
-    <t>The ingredients of this administrable medicinal product. This is only needed if the ingredients are not specified either using ManufacturedItemDefiniton, or using by incoming references from the Ingredient resource</t>
+    <t>The ingredients of this administrable medicinal product. This is only needed if the ingredients are not specified either using ManufacturedItemDefiniton (via AdministrableProductDefinition.producedFrom) to state which component items are used to make this, or using by incoming references from the Ingredient resource, to state in detail which substances exist within this. This element allows a basic coded ingredient to be used</t>
   </si>
   <si>
     <t>The ingredients of this administrable medicinal product. This is only needed if the ingredients are not specified either using ManufacturedItemDefiniton (via AdministrableProductDefinition.producedFrom) to state which component items are used to make this, or using by incoming references from the Ingredient resource, to state in detail which substances exist within this. This element allows a basic coded ingredient to be used.</t>
-  </si>
-  <si>
-    <t>This value set includes all substance codes from SNOMED CT - provided as an exemplar value set.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/substance-codes</t>
   </si>
   <si>
     <t>Pharmaceutical Product.Ingredient (see also FHIR Ingredient resource)</t>
@@ -774,7 +753,7 @@
 </t>
   </si>
   <si>
-    <t>A device that is integral to the medicinal product, in effect being considered as an "ingredient" of the medicinal product</t>
+    <t>A device that is integral to the medicinal product, in effect being considered as an "ingredient" of the medicinal product. This is not intended for devices that are just co-packaged</t>
   </si>
   <si>
     <t>A device that is integral to the medicinal product, in effect being considered as an "ingredient" of the medicinal product. This is not intended for devices that are just co-packaged.</t>
@@ -790,10 +769,10 @@
 </t>
   </si>
   <si>
-    <t>Characteristics e.g. a product's onset of action</t>
-  </si>
-  <si>
-    <t>Characteristics e.g. a product's onset of action.</t>
+    <t>Characteristics e.g. a products onset of action</t>
+  </si>
+  <si>
+    <t>Characteristics e.g. a products onset of action.</t>
   </si>
   <si>
     <t xml:space="preserve">value:type}
@@ -835,12 +814,6 @@
     <t>A code expressing the type of characteristic.</t>
   </si>
   <si>
-    <t>This value set includes all observable entity codes from SNOMED CT - provided as an exemplar value set.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/product-characteristic-codes</t>
-  </si>
-  <si>
     <t>Pharmaceutical Product Characteristics.Code System (not a one to one map, the resource is more capable)</t>
   </si>
   <si>
@@ -867,9 +840,6 @@
   </si>
   <si>
     <t>The status of characteristic e.g. assigned or pending.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/publication-status|4.6.0</t>
   </si>
   <si>
     <t>Pharmaceutical Product Characteristics.Status</t>
@@ -1026,10 +996,10 @@
     <t>AdministrableProductDefinition.routeOfAdministration</t>
   </si>
   <si>
-    <t>The path by which the product is taken into or makes contact with the body</t>
-  </si>
-  <si>
-    <t>The path by which the product is taken into or makes contact with the body. In some regions this is referred to as the licenced or approved route. RouteOfAdministration cannot be used when the 'formOf' product already uses MedicinalProductDefinition.route (and vice versa).</t>
+    <t>The path by which the product is taken into or makes contact with the body. In some regions this is referred to as the licenced or approved route</t>
+  </si>
+  <si>
+    <t>The path by which the product is taken into or makes contact with the body. In some regions this is referred to as the licenced or approved route.</t>
   </si>
   <si>
     <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
@@ -1062,19 +1032,13 @@
     <t>Coded expression for the route.</t>
   </si>
   <si>
-    <t>A code specifying the route or physiological path of administration of a therapeutic agent into or onto a patient's body.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/route-codes</t>
-  </si>
-  <si>
     <t>Route of Administration.Route of Administration</t>
   </si>
   <si>
     <t>AdministrableProductDefinition.routeOfAdministration.firstDose</t>
   </si>
   <si>
-    <t>The first dose (dose quantity) administered can be specified for the product</t>
+    <t>The first dose (dose quantity) administered can be specified for the product, using a numerical value and its unit of measurement</t>
   </si>
   <si>
     <t>The first dose (dose quantity) administered can be specified for the product, using a numerical value and its unit of measurement.</t>
@@ -1086,10 +1050,10 @@
     <t>AdministrableProductDefinition.routeOfAdministration.maxSingleDose</t>
   </si>
   <si>
-    <t>The maximum single dose that can be administered</t>
-  </si>
-  <si>
-    <t>The maximum single dose that can be administered, specified using a numerical value and its unit of measurement.</t>
+    <t>The maximum single dose that can be administered, can be specified using a numerical value and its unit of measurement</t>
+  </si>
+  <si>
+    <t>The maximum single dose that can be administered, can be specified using a numerical value and its unit of measurement.</t>
   </si>
   <si>
     <t>Dosing and Route of Administration.Maximum single dose (Investigational Medicinal Product)</t>
@@ -1098,7 +1062,7 @@
     <t>AdministrableProductDefinition.routeOfAdministration.maxDosePerDay</t>
   </si>
   <si>
-    <t>The maximum dose quantity to be administered in any one 24-h period</t>
+    <t>The maximum dose per day (maximum dose quantity to be administered in any one 24-h period) that can be administered</t>
   </si>
   <si>
     <t>The maximum dose per day (maximum dose quantity to be administered in any one 24-h period) that can be administered.</t>
@@ -1130,10 +1094,10 @@
 </t>
   </si>
   <si>
-    <t>The maximum treatment period during which the product can be administered</t>
-  </si>
-  <si>
-    <t>The maximum treatment period during which the product can be administered.</t>
+    <t>The maximum treatment period during which an Investigational Medicinal Product can be administered</t>
+  </si>
+  <si>
+    <t>The maximum treatment period during which an Investigational Medicinal Product can be administered.</t>
   </si>
   <si>
     <t>Dosing and Route of Administration.Maximum treatment period (Investigational Medicinal Product)</t>
@@ -1166,12 +1130,6 @@
     <t>Coded expression for the species.</t>
   </si>
   <si>
-    <t>A tissue type of an animal.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/target-species</t>
-  </si>
-  <si>
     <t>AdministrableProductDefinition.routeOfAdministration.targetSpecies.withdrawalPeriod</t>
   </si>
   <si>
@@ -1193,13 +1151,10 @@
     <t>AdministrableProductDefinition.routeOfAdministration.targetSpecies.withdrawalPeriod.tissue</t>
   </si>
   <si>
-    <t>The type of tissue for which the withdrawal period applies, e.g. meat, milk</t>
-  </si>
-  <si>
-    <t>Coded expression for the type of tissue for which the withdrawal period applies, e.g. meat, milk.</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/animal-tissue-type</t>
+    <t>Coded expression for the type of tissue for which the withdrawal period applues, e.g. meat, milk</t>
+  </si>
+  <si>
+    <t>Coded expression for the type of tissue for which the withdrawal period applues, e.g. meat, milk.</t>
   </si>
   <si>
     <t>AdministrableProductDefinition.routeOfAdministration.targetSpecies.withdrawalPeriod.value</t>
@@ -1531,7 +1486,7 @@
     <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="198.36328125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -1544,7 +1499,7 @@
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
     <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="110.578125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="31.765625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="63.78125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
@@ -3885,13 +3840,13 @@
         <v>74</v>
       </c>
       <c r="W22" t="s" s="2">
-        <v>217</v>
+        <v>74</v>
       </c>
       <c r="X22" t="s" s="2">
-        <v>218</v>
+        <v>74</v>
       </c>
       <c r="Y22" t="s" s="2">
-        <v>219</v>
+        <v>74</v>
       </c>
       <c r="Z22" t="s" s="2">
         <v>74</v>
@@ -3924,7 +3879,7 @@
         <v>94</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="AK22" t="s" s="2">
         <v>74</v>
@@ -3935,7 +3890,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B23" s="2"/>
       <c r="C23" t="s" s="2">
@@ -3961,10 +3916,10 @@
         <v>165</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="M23" s="2"/>
       <c r="N23" s="2"/>
@@ -3979,7 +3934,7 @@
         <v>74</v>
       </c>
       <c r="S23" t="s" s="2">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="T23" t="s" s="2">
         <v>74</v>
@@ -3991,13 +3946,13 @@
         <v>74</v>
       </c>
       <c r="W23" t="s" s="2">
-        <v>217</v>
+        <v>74</v>
       </c>
       <c r="X23" t="s" s="2">
-        <v>225</v>
+        <v>74</v>
       </c>
       <c r="Y23" t="s" s="2">
-        <v>226</v>
+        <v>74</v>
       </c>
       <c r="Z23" t="s" s="2">
         <v>74</v>
@@ -4015,7 +3970,7 @@
         <v>74</v>
       </c>
       <c r="AE23" t="s" s="2">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="AF23" t="s" s="2">
         <v>72</v>
@@ -4030,7 +3985,7 @@
         <v>94</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="AK23" t="s" s="2">
         <v>74</v>
@@ -4041,7 +3996,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="B24" s="2"/>
       <c r="C24" t="s" s="2">
@@ -4064,13 +4019,13 @@
         <v>83</v>
       </c>
       <c r="J24" t="s" s="2">
-        <v>229</v>
+        <v>224</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>231</v>
+        <v>226</v>
       </c>
       <c r="M24" s="2"/>
       <c r="N24" s="2"/>
@@ -4121,7 +4076,7 @@
         <v>74</v>
       </c>
       <c r="AE24" t="s" s="2">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="AF24" t="s" s="2">
         <v>72</v>
@@ -4136,7 +4091,7 @@
         <v>94</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>232</v>
+        <v>227</v>
       </c>
       <c r="AK24" t="s" s="2">
         <v>74</v>
@@ -4147,7 +4102,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="B25" s="2"/>
       <c r="C25" t="s" s="2">
@@ -4173,10 +4128,10 @@
         <v>165</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>235</v>
+        <v>230</v>
       </c>
       <c r="M25" s="2"/>
       <c r="N25" s="2"/>
@@ -4203,13 +4158,13 @@
         <v>74</v>
       </c>
       <c r="W25" t="s" s="2">
-        <v>217</v>
+        <v>74</v>
       </c>
       <c r="X25" t="s" s="2">
-        <v>236</v>
+        <v>74</v>
       </c>
       <c r="Y25" t="s" s="2">
-        <v>237</v>
+        <v>74</v>
       </c>
       <c r="Z25" t="s" s="2">
         <v>74</v>
@@ -4227,7 +4182,7 @@
         <v>74</v>
       </c>
       <c r="AE25" t="s" s="2">
-        <v>233</v>
+        <v>228</v>
       </c>
       <c r="AF25" t="s" s="2">
         <v>72</v>
@@ -4242,7 +4197,7 @@
         <v>94</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>238</v>
+        <v>231</v>
       </c>
       <c r="AK25" t="s" s="2">
         <v>74</v>
@@ -4253,7 +4208,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s" s="2">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="B26" s="2"/>
       <c r="C26" t="s" s="2">
@@ -4276,13 +4231,13 @@
         <v>83</v>
       </c>
       <c r="J26" t="s" s="2">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>241</v>
+        <v>234</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>242</v>
+        <v>235</v>
       </c>
       <c r="M26" s="2"/>
       <c r="N26" s="2"/>
@@ -4333,7 +4288,7 @@
         <v>74</v>
       </c>
       <c r="AE26" t="s" s="2">
-        <v>239</v>
+        <v>232</v>
       </c>
       <c r="AF26" t="s" s="2">
         <v>72</v>
@@ -4348,7 +4303,7 @@
         <v>94</v>
       </c>
       <c r="AJ26" t="s" s="2">
-        <v>243</v>
+        <v>236</v>
       </c>
       <c r="AK26" t="s" s="2">
         <v>74</v>
@@ -4359,7 +4314,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4382,13 +4337,13 @@
         <v>83</v>
       </c>
       <c r="J27" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4427,7 +4382,7 @@
         <v>74</v>
       </c>
       <c r="AA27" t="s" s="2">
-        <v>248</v>
+        <v>241</v>
       </c>
       <c r="AB27" s="2"/>
       <c r="AC27" t="s" s="2">
@@ -4437,7 +4392,7 @@
         <v>153</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>72</v>
@@ -4452,7 +4407,7 @@
         <v>94</v>
       </c>
       <c r="AJ27" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="AK27" t="s" s="2">
         <v>74</v>
@@ -4463,7 +4418,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4569,7 +4524,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4677,11 +4632,11 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="2">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" t="s" s="2">
@@ -4703,10 +4658,10 @@
         <v>128</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="M30" t="s" s="2">
         <v>131</v>
@@ -4761,7 +4716,7 @@
         <v>74</v>
       </c>
       <c r="AE30" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="AF30" t="s" s="2">
         <v>72</v>
@@ -4787,7 +4742,7 @@
     </row>
     <row r="31">
       <c r="A31" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4813,10 +4768,10 @@
         <v>165</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4843,13 +4798,13 @@
         <v>74</v>
       </c>
       <c r="W31" t="s" s="2">
-        <v>217</v>
+        <v>74</v>
       </c>
       <c r="X31" t="s" s="2">
-        <v>260</v>
+        <v>74</v>
       </c>
       <c r="Y31" t="s" s="2">
-        <v>261</v>
+        <v>74</v>
       </c>
       <c r="Z31" t="s" s="2">
         <v>74</v>
@@ -4867,7 +4822,7 @@
         <v>74</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>82</v>
@@ -4882,7 +4837,7 @@
         <v>94</v>
       </c>
       <c r="AJ31" t="s" s="2">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="AK31" t="s" s="2">
         <v>74</v>
@@ -4893,7 +4848,7 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4916,13 +4871,13 @@
         <v>83</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4973,7 +4928,7 @@
         <v>74</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>72</v>
@@ -4988,7 +4943,7 @@
         <v>94</v>
       </c>
       <c r="AJ32" t="s" s="2">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="AK32" t="s" s="2">
         <v>74</v>
@@ -4999,7 +4954,7 @@
     </row>
     <row r="33">
       <c r="A33" t="s" s="2">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -5025,10 +4980,10 @@
         <v>165</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -5055,13 +5010,13 @@
         <v>74</v>
       </c>
       <c r="W33" t="s" s="2">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="X33" t="s" s="2">
-        <v>206</v>
+        <v>74</v>
       </c>
       <c r="Y33" t="s" s="2">
-        <v>271</v>
+        <v>74</v>
       </c>
       <c r="Z33" t="s" s="2">
         <v>74</v>
@@ -5079,7 +5034,7 @@
         <v>74</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>72</v>
@@ -5094,7 +5049,7 @@
         <v>94</v>
       </c>
       <c r="AJ33" t="s" s="2">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="AK33" t="s" s="2">
         <v>74</v>
@@ -5105,10 +5060,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="C34" t="s" s="2">
         <v>74</v>
@@ -5130,13 +5085,13 @@
         <v>83</v>
       </c>
       <c r="J34" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -5187,7 +5142,7 @@
         <v>74</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>72</v>
@@ -5202,7 +5157,7 @@
         <v>94</v>
       </c>
       <c r="AJ34" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="AK34" t="s" s="2">
         <v>74</v>
@@ -5213,7 +5168,7 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5319,7 +5274,7 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5427,11 +5382,11 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="2">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" t="s" s="2">
@@ -5453,10 +5408,10 @@
         <v>128</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="M37" t="s" s="2">
         <v>131</v>
@@ -5511,7 +5466,7 @@
         <v>74</v>
       </c>
       <c r="AE37" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="AF37" t="s" s="2">
         <v>72</v>
@@ -5537,7 +5492,7 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5563,10 +5518,10 @@
         <v>165</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5578,7 +5533,7 @@
         <v>74</v>
       </c>
       <c r="R38" t="s" s="2">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="S38" t="s" s="2">
         <v>74</v>
@@ -5593,13 +5548,13 @@
         <v>74</v>
       </c>
       <c r="W38" t="s" s="2">
-        <v>217</v>
+        <v>74</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>260</v>
+        <v>74</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>261</v>
+        <v>74</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>74</v>
@@ -5617,7 +5572,7 @@
         <v>74</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>82</v>
@@ -5632,7 +5587,7 @@
         <v>94</v>
       </c>
       <c r="AJ38" t="s" s="2">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="AK38" t="s" s="2">
         <v>74</v>
@@ -5643,7 +5598,7 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5669,10 +5624,10 @@
         <v>165</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5723,7 +5678,7 @@
         <v>74</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>72</v>
@@ -5738,7 +5693,7 @@
         <v>94</v>
       </c>
       <c r="AJ39" t="s" s="2">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="AK39" t="s" s="2">
         <v>74</v>
@@ -5749,7 +5704,7 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="2">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5775,10 +5730,10 @@
         <v>165</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5805,13 +5760,13 @@
         <v>74</v>
       </c>
       <c r="W40" t="s" s="2">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="X40" t="s" s="2">
-        <v>206</v>
+        <v>74</v>
       </c>
       <c r="Y40" t="s" s="2">
-        <v>271</v>
+        <v>74</v>
       </c>
       <c r="Z40" t="s" s="2">
         <v>74</v>
@@ -5829,7 +5784,7 @@
         <v>74</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>72</v>
@@ -5844,7 +5799,7 @@
         <v>94</v>
       </c>
       <c r="AJ40" t="s" s="2">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="AK40" t="s" s="2">
         <v>74</v>
@@ -5855,10 +5810,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="C41" t="s" s="2">
         <v>74</v>
@@ -5880,13 +5835,13 @@
         <v>83</v>
       </c>
       <c r="J41" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="L41" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="M41" s="2"/>
       <c r="N41" s="2"/>
@@ -5937,7 +5892,7 @@
         <v>74</v>
       </c>
       <c r="AE41" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="AF41" t="s" s="2">
         <v>72</v>
@@ -5952,7 +5907,7 @@
         <v>94</v>
       </c>
       <c r="AJ41" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="AK41" t="s" s="2">
         <v>74</v>
@@ -5963,7 +5918,7 @@
     </row>
     <row r="42">
       <c r="A42" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -6069,7 +6024,7 @@
     </row>
     <row r="43">
       <c r="A43" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -6177,11 +6132,11 @@
     </row>
     <row r="44">
       <c r="A44" t="s" s="2">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D44" s="2"/>
       <c r="E44" t="s" s="2">
@@ -6203,10 +6158,10 @@
         <v>128</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="M44" t="s" s="2">
         <v>131</v>
@@ -6261,7 +6216,7 @@
         <v>74</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>72</v>
@@ -6287,7 +6242,7 @@
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6313,10 +6268,10 @@
         <v>165</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6328,7 +6283,7 @@
         <v>74</v>
       </c>
       <c r="R45" t="s" s="2">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="S45" t="s" s="2">
         <v>74</v>
@@ -6343,13 +6298,13 @@
         <v>74</v>
       </c>
       <c r="W45" t="s" s="2">
-        <v>217</v>
+        <v>74</v>
       </c>
       <c r="X45" t="s" s="2">
-        <v>260</v>
+        <v>74</v>
       </c>
       <c r="Y45" t="s" s="2">
-        <v>261</v>
+        <v>74</v>
       </c>
       <c r="Z45" t="s" s="2">
         <v>74</v>
@@ -6367,7 +6322,7 @@
         <v>74</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>82</v>
@@ -6382,7 +6337,7 @@
         <v>94</v>
       </c>
       <c r="AJ45" t="s" s="2">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="AK45" t="s" s="2">
         <v>74</v>
@@ -6393,7 +6348,7 @@
     </row>
     <row r="46">
       <c r="A46" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6419,10 +6374,10 @@
         <v>165</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="M46" s="2"/>
       <c r="N46" s="2"/>
@@ -6473,7 +6428,7 @@
         <v>74</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>72</v>
@@ -6488,7 +6443,7 @@
         <v>94</v>
       </c>
       <c r="AJ46" t="s" s="2">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="AK46" t="s" s="2">
         <v>74</v>
@@ -6499,7 +6454,7 @@
     </row>
     <row r="47">
       <c r="A47" t="s" s="2">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6525,10 +6480,10 @@
         <v>165</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="M47" s="2"/>
       <c r="N47" s="2"/>
@@ -6555,13 +6510,13 @@
         <v>74</v>
       </c>
       <c r="W47" t="s" s="2">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>206</v>
+        <v>74</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>271</v>
+        <v>74</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>74</v>
@@ -6579,7 +6534,7 @@
         <v>74</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>72</v>
@@ -6594,7 +6549,7 @@
         <v>94</v>
       </c>
       <c r="AJ47" t="s" s="2">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="AK47" t="s" s="2">
         <v>74</v>
@@ -6605,10 +6560,10 @@
     </row>
     <row r="48">
       <c r="A48" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="C48" t="s" s="2">
         <v>74</v>
@@ -6630,13 +6585,13 @@
         <v>83</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="M48" s="2"/>
       <c r="N48" s="2"/>
@@ -6687,7 +6642,7 @@
         <v>74</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>72</v>
@@ -6702,7 +6657,7 @@
         <v>94</v>
       </c>
       <c r="AJ48" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="AK48" t="s" s="2">
         <v>74</v>
@@ -6713,7 +6668,7 @@
     </row>
     <row r="49">
       <c r="A49" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6819,7 +6774,7 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6927,11 +6882,11 @@
     </row>
     <row r="51">
       <c r="A51" t="s" s="2">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D51" s="2"/>
       <c r="E51" t="s" s="2">
@@ -6953,10 +6908,10 @@
         <v>128</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="M51" t="s" s="2">
         <v>131</v>
@@ -7011,7 +6966,7 @@
         <v>74</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>72</v>
@@ -7037,7 +6992,7 @@
     </row>
     <row r="52">
       <c r="A52" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -7063,10 +7018,10 @@
         <v>165</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -7078,7 +7033,7 @@
         <v>74</v>
       </c>
       <c r="R52" t="s" s="2">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="S52" t="s" s="2">
         <v>74</v>
@@ -7093,13 +7048,13 @@
         <v>74</v>
       </c>
       <c r="W52" t="s" s="2">
-        <v>217</v>
+        <v>74</v>
       </c>
       <c r="X52" t="s" s="2">
-        <v>260</v>
+        <v>74</v>
       </c>
       <c r="Y52" t="s" s="2">
-        <v>261</v>
+        <v>74</v>
       </c>
       <c r="Z52" t="s" s="2">
         <v>74</v>
@@ -7117,7 +7072,7 @@
         <v>74</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>82</v>
@@ -7132,7 +7087,7 @@
         <v>94</v>
       </c>
       <c r="AJ52" t="s" s="2">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="AK52" t="s" s="2">
         <v>74</v>
@@ -7143,7 +7098,7 @@
     </row>
     <row r="53">
       <c r="A53" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7169,10 +7124,10 @@
         <v>165</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="M53" s="2"/>
       <c r="N53" s="2"/>
@@ -7223,7 +7178,7 @@
         <v>74</v>
       </c>
       <c r="AE53" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="AF53" t="s" s="2">
         <v>72</v>
@@ -7238,7 +7193,7 @@
         <v>94</v>
       </c>
       <c r="AJ53" t="s" s="2">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="AK53" t="s" s="2">
         <v>74</v>
@@ -7249,7 +7204,7 @@
     </row>
     <row r="54">
       <c r="A54" t="s" s="2">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7275,10 +7230,10 @@
         <v>165</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="M54" s="2"/>
       <c r="N54" s="2"/>
@@ -7305,13 +7260,13 @@
         <v>74</v>
       </c>
       <c r="W54" t="s" s="2">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="X54" t="s" s="2">
-        <v>206</v>
+        <v>74</v>
       </c>
       <c r="Y54" t="s" s="2">
-        <v>271</v>
+        <v>74</v>
       </c>
       <c r="Z54" t="s" s="2">
         <v>74</v>
@@ -7329,7 +7284,7 @@
         <v>74</v>
       </c>
       <c r="AE54" t="s" s="2">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="AF54" t="s" s="2">
         <v>72</v>
@@ -7344,7 +7299,7 @@
         <v>94</v>
       </c>
       <c r="AJ54" t="s" s="2">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="AK54" t="s" s="2">
         <v>74</v>
@@ -7355,10 +7310,10 @@
     </row>
     <row r="55">
       <c r="A55" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="C55" t="s" s="2">
         <v>74</v>
@@ -7380,13 +7335,13 @@
         <v>83</v>
       </c>
       <c r="J55" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="M55" s="2"/>
       <c r="N55" s="2"/>
@@ -7437,7 +7392,7 @@
         <v>74</v>
       </c>
       <c r="AE55" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="AF55" t="s" s="2">
         <v>72</v>
@@ -7452,7 +7407,7 @@
         <v>94</v>
       </c>
       <c r="AJ55" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="AK55" t="s" s="2">
         <v>74</v>
@@ -7463,7 +7418,7 @@
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7569,7 +7524,7 @@
     </row>
     <row r="57">
       <c r="A57" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7677,11 +7632,11 @@
     </row>
     <row r="58">
       <c r="A58" t="s" s="2">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D58" s="2"/>
       <c r="E58" t="s" s="2">
@@ -7703,10 +7658,10 @@
         <v>128</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="M58" t="s" s="2">
         <v>131</v>
@@ -7761,7 +7716,7 @@
         <v>74</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>72</v>
@@ -7787,7 +7742,7 @@
     </row>
     <row r="59">
       <c r="A59" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" t="s" s="2">
@@ -7813,10 +7768,10 @@
         <v>165</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="M59" s="2"/>
       <c r="N59" s="2"/>
@@ -7828,7 +7783,7 @@
         <v>74</v>
       </c>
       <c r="R59" t="s" s="2">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="S59" t="s" s="2">
         <v>74</v>
@@ -7843,13 +7798,13 @@
         <v>74</v>
       </c>
       <c r="W59" t="s" s="2">
-        <v>217</v>
+        <v>74</v>
       </c>
       <c r="X59" t="s" s="2">
-        <v>260</v>
+        <v>74</v>
       </c>
       <c r="Y59" t="s" s="2">
-        <v>261</v>
+        <v>74</v>
       </c>
       <c r="Z59" t="s" s="2">
         <v>74</v>
@@ -7867,7 +7822,7 @@
         <v>74</v>
       </c>
       <c r="AE59" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="AF59" t="s" s="2">
         <v>82</v>
@@ -7882,7 +7837,7 @@
         <v>94</v>
       </c>
       <c r="AJ59" t="s" s="2">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="AK59" t="s" s="2">
         <v>74</v>
@@ -7893,7 +7848,7 @@
     </row>
     <row r="60">
       <c r="A60" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" t="s" s="2">
@@ -7919,10 +7874,10 @@
         <v>165</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="M60" s="2"/>
       <c r="N60" s="2"/>
@@ -7973,7 +7928,7 @@
         <v>74</v>
       </c>
       <c r="AE60" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="AF60" t="s" s="2">
         <v>72</v>
@@ -7988,7 +7943,7 @@
         <v>94</v>
       </c>
       <c r="AJ60" t="s" s="2">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="AK60" t="s" s="2">
         <v>74</v>
@@ -7999,7 +7954,7 @@
     </row>
     <row r="61">
       <c r="A61" t="s" s="2">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" t="s" s="2">
@@ -8025,10 +7980,10 @@
         <v>165</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="M61" s="2"/>
       <c r="N61" s="2"/>
@@ -8055,13 +8010,13 @@
         <v>74</v>
       </c>
       <c r="W61" t="s" s="2">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="X61" t="s" s="2">
-        <v>206</v>
+        <v>74</v>
       </c>
       <c r="Y61" t="s" s="2">
-        <v>271</v>
+        <v>74</v>
       </c>
       <c r="Z61" t="s" s="2">
         <v>74</v>
@@ -8079,7 +8034,7 @@
         <v>74</v>
       </c>
       <c r="AE61" t="s" s="2">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="AF61" t="s" s="2">
         <v>72</v>
@@ -8094,7 +8049,7 @@
         <v>94</v>
       </c>
       <c r="AJ61" t="s" s="2">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="AK61" t="s" s="2">
         <v>74</v>
@@ -8105,10 +8060,10 @@
     </row>
     <row r="62">
       <c r="A62" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="C62" t="s" s="2">
         <v>74</v>
@@ -8130,13 +8085,13 @@
         <v>83</v>
       </c>
       <c r="J62" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="M62" s="2"/>
       <c r="N62" s="2"/>
@@ -8187,7 +8142,7 @@
         <v>74</v>
       </c>
       <c r="AE62" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="AF62" t="s" s="2">
         <v>72</v>
@@ -8202,7 +8157,7 @@
         <v>94</v>
       </c>
       <c r="AJ62" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="AK62" t="s" s="2">
         <v>74</v>
@@ -8213,7 +8168,7 @@
     </row>
     <row r="63">
       <c r="A63" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" t="s" s="2">
@@ -8319,7 +8274,7 @@
     </row>
     <row r="64">
       <c r="A64" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" t="s" s="2">
@@ -8427,11 +8382,11 @@
     </row>
     <row r="65">
       <c r="A65" t="s" s="2">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" t="s" s="2">
@@ -8453,10 +8408,10 @@
         <v>128</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="L65" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="M65" t="s" s="2">
         <v>131</v>
@@ -8511,7 +8466,7 @@
         <v>74</v>
       </c>
       <c r="AE65" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="AF65" t="s" s="2">
         <v>72</v>
@@ -8537,7 +8492,7 @@
     </row>
     <row r="66">
       <c r="A66" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B66" s="2"/>
       <c r="C66" t="s" s="2">
@@ -8563,10 +8518,10 @@
         <v>165</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="M66" s="2"/>
       <c r="N66" s="2"/>
@@ -8578,7 +8533,7 @@
         <v>74</v>
       </c>
       <c r="R66" t="s" s="2">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="S66" t="s" s="2">
         <v>74</v>
@@ -8593,13 +8548,13 @@
         <v>74</v>
       </c>
       <c r="W66" t="s" s="2">
-        <v>217</v>
+        <v>74</v>
       </c>
       <c r="X66" t="s" s="2">
-        <v>260</v>
+        <v>74</v>
       </c>
       <c r="Y66" t="s" s="2">
-        <v>261</v>
+        <v>74</v>
       </c>
       <c r="Z66" t="s" s="2">
         <v>74</v>
@@ -8617,7 +8572,7 @@
         <v>74</v>
       </c>
       <c r="AE66" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="AF66" t="s" s="2">
         <v>82</v>
@@ -8632,7 +8587,7 @@
         <v>94</v>
       </c>
       <c r="AJ66" t="s" s="2">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="AK66" t="s" s="2">
         <v>74</v>
@@ -8643,7 +8598,7 @@
     </row>
     <row r="67">
       <c r="A67" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" t="s" s="2">
@@ -8666,13 +8621,13 @@
         <v>83</v>
       </c>
       <c r="J67" t="s" s="2">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="M67" s="2"/>
       <c r="N67" s="2"/>
@@ -8723,7 +8678,7 @@
         <v>74</v>
       </c>
       <c r="AE67" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="AF67" t="s" s="2">
         <v>72</v>
@@ -8738,7 +8693,7 @@
         <v>94</v>
       </c>
       <c r="AJ67" t="s" s="2">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="AK67" t="s" s="2">
         <v>74</v>
@@ -8749,7 +8704,7 @@
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" t="s" s="2">
@@ -8775,10 +8730,10 @@
         <v>165</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="M68" s="2"/>
       <c r="N68" s="2"/>
@@ -8805,13 +8760,13 @@
         <v>74</v>
       </c>
       <c r="W68" t="s" s="2">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="X68" t="s" s="2">
-        <v>206</v>
+        <v>74</v>
       </c>
       <c r="Y68" t="s" s="2">
-        <v>271</v>
+        <v>74</v>
       </c>
       <c r="Z68" t="s" s="2">
         <v>74</v>
@@ -8829,7 +8784,7 @@
         <v>74</v>
       </c>
       <c r="AE68" t="s" s="2">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="AF68" t="s" s="2">
         <v>72</v>
@@ -8844,7 +8799,7 @@
         <v>94</v>
       </c>
       <c r="AJ68" t="s" s="2">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="AK68" t="s" s="2">
         <v>74</v>
@@ -8855,10 +8810,10 @@
     </row>
     <row r="69">
       <c r="A69" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="C69" t="s" s="2">
         <v>74</v>
@@ -8880,13 +8835,13 @@
         <v>83</v>
       </c>
       <c r="J69" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="M69" s="2"/>
       <c r="N69" s="2"/>
@@ -8937,7 +8892,7 @@
         <v>74</v>
       </c>
       <c r="AE69" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="AF69" t="s" s="2">
         <v>72</v>
@@ -8952,7 +8907,7 @@
         <v>94</v>
       </c>
       <c r="AJ69" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="AK69" t="s" s="2">
         <v>74</v>
@@ -8963,7 +8918,7 @@
     </row>
     <row r="70">
       <c r="A70" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" t="s" s="2">
@@ -9069,7 +9024,7 @@
     </row>
     <row r="71">
       <c r="A71" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" t="s" s="2">
@@ -9177,11 +9132,11 @@
     </row>
     <row r="72">
       <c r="A72" t="s" s="2">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B72" s="2"/>
       <c r="C72" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9203,10 +9158,10 @@
         <v>128</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="M72" t="s" s="2">
         <v>131</v>
@@ -9261,7 +9216,7 @@
         <v>74</v>
       </c>
       <c r="AE72" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="AF72" t="s" s="2">
         <v>72</v>
@@ -9287,7 +9242,7 @@
     </row>
     <row r="73">
       <c r="A73" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B73" s="2"/>
       <c r="C73" t="s" s="2">
@@ -9313,10 +9268,10 @@
         <v>165</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="M73" s="2"/>
       <c r="N73" s="2"/>
@@ -9328,7 +9283,7 @@
         <v>74</v>
       </c>
       <c r="R73" t="s" s="2">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="S73" t="s" s="2">
         <v>74</v>
@@ -9343,13 +9298,13 @@
         <v>74</v>
       </c>
       <c r="W73" t="s" s="2">
-        <v>217</v>
+        <v>74</v>
       </c>
       <c r="X73" t="s" s="2">
-        <v>260</v>
+        <v>74</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>261</v>
+        <v>74</v>
       </c>
       <c r="Z73" t="s" s="2">
         <v>74</v>
@@ -9367,7 +9322,7 @@
         <v>74</v>
       </c>
       <c r="AE73" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="AF73" t="s" s="2">
         <v>82</v>
@@ -9382,7 +9337,7 @@
         <v>94</v>
       </c>
       <c r="AJ73" t="s" s="2">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="AK73" t="s" s="2">
         <v>74</v>
@@ -9393,7 +9348,7 @@
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="B74" s="2"/>
       <c r="C74" t="s" s="2">
@@ -9416,13 +9371,13 @@
         <v>83</v>
       </c>
       <c r="J74" t="s" s="2">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="M74" s="2"/>
       <c r="N74" s="2"/>
@@ -9473,7 +9428,7 @@
         <v>74</v>
       </c>
       <c r="AE74" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="AF74" t="s" s="2">
         <v>72</v>
@@ -9488,7 +9443,7 @@
         <v>94</v>
       </c>
       <c r="AJ74" t="s" s="2">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="AK74" t="s" s="2">
         <v>74</v>
@@ -9499,7 +9454,7 @@
     </row>
     <row r="75">
       <c r="A75" t="s" s="2">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="B75" s="2"/>
       <c r="C75" t="s" s="2">
@@ -9525,10 +9480,10 @@
         <v>165</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="M75" s="2"/>
       <c r="N75" s="2"/>
@@ -9555,13 +9510,13 @@
         <v>74</v>
       </c>
       <c r="W75" t="s" s="2">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>206</v>
+        <v>74</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>271</v>
+        <v>74</v>
       </c>
       <c r="Z75" t="s" s="2">
         <v>74</v>
@@ -9579,7 +9534,7 @@
         <v>74</v>
       </c>
       <c r="AE75" t="s" s="2">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="AF75" t="s" s="2">
         <v>72</v>
@@ -9594,7 +9549,7 @@
         <v>94</v>
       </c>
       <c r="AJ75" t="s" s="2">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="AK75" t="s" s="2">
         <v>74</v>
@@ -9605,10 +9560,10 @@
     </row>
     <row r="76">
       <c r="A76" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="C76" t="s" s="2">
         <v>74</v>
@@ -9630,13 +9585,13 @@
         <v>83</v>
       </c>
       <c r="J76" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>246</v>
+        <v>239</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>247</v>
+        <v>240</v>
       </c>
       <c r="M76" s="2"/>
       <c r="N76" s="2"/>
@@ -9687,7 +9642,7 @@
         <v>74</v>
       </c>
       <c r="AE76" t="s" s="2">
-        <v>244</v>
+        <v>237</v>
       </c>
       <c r="AF76" t="s" s="2">
         <v>72</v>
@@ -9702,7 +9657,7 @@
         <v>94</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>249</v>
+        <v>242</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>74</v>
@@ -9713,7 +9668,7 @@
     </row>
     <row r="77">
       <c r="A77" t="s" s="2">
-        <v>250</v>
+        <v>243</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" t="s" s="2">
@@ -9819,7 +9774,7 @@
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>251</v>
+        <v>244</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" t="s" s="2">
@@ -9927,11 +9882,11 @@
     </row>
     <row r="79">
       <c r="A79" t="s" s="2">
-        <v>252</v>
+        <v>245</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -9953,10 +9908,10 @@
         <v>128</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="M79" t="s" s="2">
         <v>131</v>
@@ -10011,7 +9966,7 @@
         <v>74</v>
       </c>
       <c r="AE79" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="AF79" t="s" s="2">
         <v>72</v>
@@ -10037,7 +9992,7 @@
     </row>
     <row r="80">
       <c r="A80" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" t="s" s="2">
@@ -10063,10 +10018,10 @@
         <v>165</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>258</v>
+        <v>251</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>259</v>
+        <v>252</v>
       </c>
       <c r="M80" s="2"/>
       <c r="N80" s="2"/>
@@ -10078,7 +10033,7 @@
         <v>74</v>
       </c>
       <c r="R80" t="s" s="2">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="S80" t="s" s="2">
         <v>74</v>
@@ -10093,13 +10048,13 @@
         <v>74</v>
       </c>
       <c r="W80" t="s" s="2">
-        <v>217</v>
+        <v>74</v>
       </c>
       <c r="X80" t="s" s="2">
-        <v>260</v>
+        <v>74</v>
       </c>
       <c r="Y80" t="s" s="2">
-        <v>261</v>
+        <v>74</v>
       </c>
       <c r="Z80" t="s" s="2">
         <v>74</v>
@@ -10117,7 +10072,7 @@
         <v>74</v>
       </c>
       <c r="AE80" t="s" s="2">
-        <v>257</v>
+        <v>250</v>
       </c>
       <c r="AF80" t="s" s="2">
         <v>82</v>
@@ -10132,7 +10087,7 @@
         <v>94</v>
       </c>
       <c r="AJ80" t="s" s="2">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="AK80" t="s" s="2">
         <v>74</v>
@@ -10143,7 +10098,7 @@
     </row>
     <row r="81">
       <c r="A81" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" t="s" s="2">
@@ -10166,13 +10121,13 @@
         <v>83</v>
       </c>
       <c r="J81" t="s" s="2">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="M81" s="2"/>
       <c r="N81" s="2"/>
@@ -10211,7 +10166,7 @@
         <v>74</v>
       </c>
       <c r="AA81" t="s" s="2">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="AB81" s="2"/>
       <c r="AC81" t="s" s="2">
@@ -10221,7 +10176,7 @@
         <v>153</v>
       </c>
       <c r="AE81" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="AF81" t="s" s="2">
         <v>72</v>
@@ -10236,7 +10191,7 @@
         <v>94</v>
       </c>
       <c r="AJ81" t="s" s="2">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="AK81" t="s" s="2">
         <v>74</v>
@@ -10247,10 +10202,10 @@
     </row>
     <row r="82">
       <c r="A82" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="C82" t="s" s="2">
         <v>74</v>
@@ -10275,10 +10230,10 @@
         <v>165</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="M82" s="2"/>
       <c r="N82" s="2"/>
@@ -10329,7 +10284,7 @@
         <v>74</v>
       </c>
       <c r="AE82" t="s" s="2">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="AF82" t="s" s="2">
         <v>72</v>
@@ -10344,7 +10299,7 @@
         <v>94</v>
       </c>
       <c r="AJ82" t="s" s="2">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="AK82" t="s" s="2">
         <v>74</v>
@@ -10355,7 +10310,7 @@
     </row>
     <row r="83">
       <c r="A83" t="s" s="2">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" t="s" s="2">
@@ -10461,7 +10416,7 @@
     </row>
     <row r="84">
       <c r="A84" t="s" s="2">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" t="s" s="2">
@@ -10569,7 +10524,7 @@
     </row>
     <row r="85">
       <c r="A85" t="s" s="2">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" t="s" s="2">
@@ -10592,19 +10547,19 @@
         <v>83</v>
       </c>
       <c r="J85" t="s" s="2">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="O85" t="s" s="2">
         <v>74</v>
@@ -10653,7 +10608,7 @@
         <v>74</v>
       </c>
       <c r="AE85" t="s" s="2">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="AF85" t="s" s="2">
         <v>72</v>
@@ -10674,12 +10629,12 @@
         <v>74</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>301</v>
+        <v>291</v>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="s" s="2">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" t="s" s="2">
@@ -10705,16 +10660,16 @@
         <v>145</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="L86" t="s" s="2">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="M86" t="s" s="2">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="N86" t="s" s="2">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="O86" t="s" s="2">
         <v>74</v>
@@ -10763,7 +10718,7 @@
         <v>74</v>
       </c>
       <c r="AE86" t="s" s="2">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="AF86" t="s" s="2">
         <v>72</v>
@@ -10784,12 +10739,12 @@
         <v>74</v>
       </c>
       <c r="AL86" t="s" s="2">
-        <v>308</v>
+        <v>298</v>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="s" s="2">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" t="s" s="2">
@@ -10815,10 +10770,10 @@
         <v>165</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="L87" t="s" s="2">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="M87" s="2"/>
       <c r="N87" s="2"/>
@@ -10845,13 +10800,13 @@
         <v>74</v>
       </c>
       <c r="W87" t="s" s="2">
-        <v>160</v>
+        <v>74</v>
       </c>
       <c r="X87" t="s" s="2">
-        <v>206</v>
+        <v>74</v>
       </c>
       <c r="Y87" t="s" s="2">
-        <v>271</v>
+        <v>74</v>
       </c>
       <c r="Z87" t="s" s="2">
         <v>74</v>
@@ -10869,7 +10824,7 @@
         <v>74</v>
       </c>
       <c r="AE87" t="s" s="2">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="AF87" t="s" s="2">
         <v>72</v>
@@ -10884,7 +10839,7 @@
         <v>94</v>
       </c>
       <c r="AJ87" t="s" s="2">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="AK87" t="s" s="2">
         <v>74</v>
@@ -10895,7 +10850,7 @@
     </row>
     <row r="88">
       <c r="A88" t="s" s="2">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" t="s" s="2">
@@ -10918,13 +10873,13 @@
         <v>83</v>
       </c>
       <c r="J88" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="L88" t="s" s="2">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="M88" s="2"/>
       <c r="N88" s="2"/>
@@ -10939,7 +10894,7 @@
         <v>74</v>
       </c>
       <c r="S88" t="s" s="2">
-        <v>312</v>
+        <v>302</v>
       </c>
       <c r="T88" t="s" s="2">
         <v>74</v>
@@ -10975,7 +10930,7 @@
         <v>74</v>
       </c>
       <c r="AE88" t="s" s="2">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="AF88" t="s" s="2">
         <v>82</v>
@@ -10990,7 +10945,7 @@
         <v>94</v>
       </c>
       <c r="AJ88" t="s" s="2">
-        <v>313</v>
+        <v>303</v>
       </c>
       <c r="AK88" t="s" s="2">
         <v>74</v>
@@ -11001,7 +10956,7 @@
     </row>
     <row r="89">
       <c r="A89" t="s" s="2">
-        <v>314</v>
+        <v>304</v>
       </c>
       <c r="B89" s="2"/>
       <c r="C89" t="s" s="2">
@@ -11107,7 +11062,7 @@
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="B90" s="2"/>
       <c r="C90" t="s" s="2">
@@ -11215,11 +11170,11 @@
     </row>
     <row r="91">
       <c r="A91" t="s" s="2">
-        <v>316</v>
+        <v>306</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -11241,10 +11196,10 @@
         <v>128</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="L91" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="M91" t="s" s="2">
         <v>131</v>
@@ -11299,7 +11254,7 @@
         <v>74</v>
       </c>
       <c r="AE91" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="AF91" t="s" s="2">
         <v>72</v>
@@ -11325,7 +11280,7 @@
     </row>
     <row r="92">
       <c r="A92" t="s" s="2">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" t="s" s="2">
@@ -11351,10 +11306,10 @@
         <v>165</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>318</v>
+        <v>308</v>
       </c>
       <c r="L92" t="s" s="2">
-        <v>319</v>
+        <v>309</v>
       </c>
       <c r="M92" s="2"/>
       <c r="N92" s="2"/>
@@ -11381,13 +11336,13 @@
         <v>74</v>
       </c>
       <c r="W92" t="s" s="2">
-        <v>217</v>
+        <v>74</v>
       </c>
       <c r="X92" t="s" s="2">
-        <v>320</v>
+        <v>74</v>
       </c>
       <c r="Y92" t="s" s="2">
-        <v>321</v>
+        <v>74</v>
       </c>
       <c r="Z92" t="s" s="2">
         <v>74</v>
@@ -11405,7 +11360,7 @@
         <v>74</v>
       </c>
       <c r="AE92" t="s" s="2">
-        <v>317</v>
+        <v>307</v>
       </c>
       <c r="AF92" t="s" s="2">
         <v>82</v>
@@ -11420,7 +11375,7 @@
         <v>94</v>
       </c>
       <c r="AJ92" t="s" s="2">
-        <v>322</v>
+        <v>310</v>
       </c>
       <c r="AK92" t="s" s="2">
         <v>74</v>
@@ -11431,7 +11386,7 @@
     </row>
     <row r="93">
       <c r="A93" t="s" s="2">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="B93" s="2"/>
       <c r="C93" t="s" s="2">
@@ -11454,13 +11409,13 @@
         <v>83</v>
       </c>
       <c r="J93" t="s" s="2">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>324</v>
+        <v>312</v>
       </c>
       <c r="L93" t="s" s="2">
-        <v>325</v>
+        <v>313</v>
       </c>
       <c r="M93" s="2"/>
       <c r="N93" s="2"/>
@@ -11511,7 +11466,7 @@
         <v>74</v>
       </c>
       <c r="AE93" t="s" s="2">
-        <v>323</v>
+        <v>311</v>
       </c>
       <c r="AF93" t="s" s="2">
         <v>72</v>
@@ -11526,7 +11481,7 @@
         <v>94</v>
       </c>
       <c r="AJ93" t="s" s="2">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="AK93" t="s" s="2">
         <v>74</v>
@@ -11537,7 +11492,7 @@
     </row>
     <row r="94">
       <c r="A94" t="s" s="2">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="B94" s="2"/>
       <c r="C94" t="s" s="2">
@@ -11560,13 +11515,13 @@
         <v>83</v>
       </c>
       <c r="J94" t="s" s="2">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="L94" t="s" s="2">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="M94" s="2"/>
       <c r="N94" s="2"/>
@@ -11617,7 +11572,7 @@
         <v>74</v>
       </c>
       <c r="AE94" t="s" s="2">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="AF94" t="s" s="2">
         <v>72</v>
@@ -11632,7 +11587,7 @@
         <v>94</v>
       </c>
       <c r="AJ94" t="s" s="2">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="AK94" t="s" s="2">
         <v>74</v>
@@ -11643,7 +11598,7 @@
     </row>
     <row r="95">
       <c r="A95" t="s" s="2">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="B95" s="2"/>
       <c r="C95" t="s" s="2">
@@ -11666,13 +11621,13 @@
         <v>83</v>
       </c>
       <c r="J95" t="s" s="2">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="M95" s="2"/>
       <c r="N95" s="2"/>
@@ -11723,7 +11678,7 @@
         <v>74</v>
       </c>
       <c r="AE95" t="s" s="2">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="AF95" t="s" s="2">
         <v>72</v>
@@ -11738,7 +11693,7 @@
         <v>94</v>
       </c>
       <c r="AJ95" t="s" s="2">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="AK95" t="s" s="2">
         <v>74</v>
@@ -11749,7 +11704,7 @@
     </row>
     <row r="96">
       <c r="A96" t="s" s="2">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="B96" s="2"/>
       <c r="C96" t="s" s="2">
@@ -11772,13 +11727,13 @@
         <v>83</v>
       </c>
       <c r="J96" t="s" s="2">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="L96" t="s" s="2">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="M96" s="2"/>
       <c r="N96" s="2"/>
@@ -11829,7 +11784,7 @@
         <v>74</v>
       </c>
       <c r="AE96" t="s" s="2">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="AF96" t="s" s="2">
         <v>72</v>
@@ -11844,7 +11799,7 @@
         <v>94</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>74</v>
@@ -11855,7 +11810,7 @@
     </row>
     <row r="97">
       <c r="A97" t="s" s="2">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="B97" s="2"/>
       <c r="C97" t="s" s="2">
@@ -11878,13 +11833,13 @@
         <v>83</v>
       </c>
       <c r="J97" t="s" s="2">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="L97" t="s" s="2">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="M97" s="2"/>
       <c r="N97" s="2"/>
@@ -11935,7 +11890,7 @@
         <v>74</v>
       </c>
       <c r="AE97" t="s" s="2">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="AF97" t="s" s="2">
         <v>72</v>
@@ -11950,7 +11905,7 @@
         <v>94</v>
       </c>
       <c r="AJ97" t="s" s="2">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="AK97" t="s" s="2">
         <v>74</v>
@@ -11961,7 +11916,7 @@
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="B98" s="2"/>
       <c r="C98" t="s" s="2">
@@ -11984,13 +11939,13 @@
         <v>83</v>
       </c>
       <c r="J98" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="L98" t="s" s="2">
-        <v>347</v>
+        <v>335</v>
       </c>
       <c r="M98" s="2"/>
       <c r="N98" s="2"/>
@@ -12041,7 +11996,7 @@
         <v>74</v>
       </c>
       <c r="AE98" t="s" s="2">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="AF98" t="s" s="2">
         <v>72</v>
@@ -12067,7 +12022,7 @@
     </row>
     <row r="99">
       <c r="A99" t="s" s="2">
-        <v>348</v>
+        <v>336</v>
       </c>
       <c r="B99" s="2"/>
       <c r="C99" t="s" s="2">
@@ -12173,7 +12128,7 @@
     </row>
     <row r="100">
       <c r="A100" t="s" s="2">
-        <v>349</v>
+        <v>337</v>
       </c>
       <c r="B100" s="2"/>
       <c r="C100" t="s" s="2">
@@ -12281,11 +12236,11 @@
     </row>
     <row r="101">
       <c r="A101" t="s" s="2">
-        <v>350</v>
+        <v>338</v>
       </c>
       <c r="B101" s="2"/>
       <c r="C101" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -12307,10 +12262,10 @@
         <v>128</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="L101" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="M101" t="s" s="2">
         <v>131</v>
@@ -12365,7 +12320,7 @@
         <v>74</v>
       </c>
       <c r="AE101" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="AF101" t="s" s="2">
         <v>72</v>
@@ -12391,7 +12346,7 @@
     </row>
     <row r="102">
       <c r="A102" t="s" s="2">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="B102" s="2"/>
       <c r="C102" t="s" s="2">
@@ -12417,10 +12372,10 @@
         <v>165</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>352</v>
+        <v>340</v>
       </c>
       <c r="L102" t="s" s="2">
-        <v>353</v>
+        <v>341</v>
       </c>
       <c r="M102" s="2"/>
       <c r="N102" s="2"/>
@@ -12447,13 +12402,13 @@
         <v>74</v>
       </c>
       <c r="W102" t="s" s="2">
-        <v>217</v>
+        <v>74</v>
       </c>
       <c r="X102" t="s" s="2">
-        <v>354</v>
+        <v>74</v>
       </c>
       <c r="Y102" t="s" s="2">
-        <v>355</v>
+        <v>74</v>
       </c>
       <c r="Z102" t="s" s="2">
         <v>74</v>
@@ -12471,7 +12426,7 @@
         <v>74</v>
       </c>
       <c r="AE102" t="s" s="2">
-        <v>351</v>
+        <v>339</v>
       </c>
       <c r="AF102" t="s" s="2">
         <v>82</v>
@@ -12497,7 +12452,7 @@
     </row>
     <row r="103">
       <c r="A103" t="s" s="2">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="B103" s="2"/>
       <c r="C103" t="s" s="2">
@@ -12520,13 +12475,13 @@
         <v>83</v>
       </c>
       <c r="J103" t="s" s="2">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>357</v>
+        <v>343</v>
       </c>
       <c r="L103" t="s" s="2">
-        <v>358</v>
+        <v>344</v>
       </c>
       <c r="M103" s="2"/>
       <c r="N103" s="2"/>
@@ -12577,7 +12532,7 @@
         <v>74</v>
       </c>
       <c r="AE103" t="s" s="2">
-        <v>356</v>
+        <v>342</v>
       </c>
       <c r="AF103" t="s" s="2">
         <v>72</v>
@@ -12603,7 +12558,7 @@
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" t="s" s="2">
@@ -12709,7 +12664,7 @@
     </row>
     <row r="105">
       <c r="A105" t="s" s="2">
-        <v>360</v>
+        <v>346</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" t="s" s="2">
@@ -12817,11 +12772,11 @@
     </row>
     <row r="106">
       <c r="A106" t="s" s="2">
-        <v>361</v>
+        <v>347</v>
       </c>
       <c r="B106" s="2"/>
       <c r="C106" t="s" s="2">
-        <v>253</v>
+        <v>246</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
@@ -12843,10 +12798,10 @@
         <v>128</v>
       </c>
       <c r="K106" t="s" s="2">
-        <v>254</v>
+        <v>247</v>
       </c>
       <c r="L106" t="s" s="2">
-        <v>255</v>
+        <v>248</v>
       </c>
       <c r="M106" t="s" s="2">
         <v>131</v>
@@ -12901,7 +12856,7 @@
         <v>74</v>
       </c>
       <c r="AE106" t="s" s="2">
-        <v>256</v>
+        <v>249</v>
       </c>
       <c r="AF106" t="s" s="2">
         <v>72</v>
@@ -12927,7 +12882,7 @@
     </row>
     <row r="107">
       <c r="A107" t="s" s="2">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="B107" s="2"/>
       <c r="C107" t="s" s="2">
@@ -12953,10 +12908,10 @@
         <v>165</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>363</v>
+        <v>349</v>
       </c>
       <c r="L107" t="s" s="2">
-        <v>364</v>
+        <v>350</v>
       </c>
       <c r="M107" s="2"/>
       <c r="N107" s="2"/>
@@ -12983,13 +12938,13 @@
         <v>74</v>
       </c>
       <c r="W107" t="s" s="2">
-        <v>217</v>
+        <v>74</v>
       </c>
       <c r="X107" t="s" s="2">
-        <v>354</v>
+        <v>74</v>
       </c>
       <c r="Y107" t="s" s="2">
-        <v>365</v>
+        <v>74</v>
       </c>
       <c r="Z107" t="s" s="2">
         <v>74</v>
@@ -13007,7 +12962,7 @@
         <v>74</v>
       </c>
       <c r="AE107" t="s" s="2">
-        <v>362</v>
+        <v>348</v>
       </c>
       <c r="AF107" t="s" s="2">
         <v>82</v>
@@ -13033,7 +12988,7 @@
     </row>
     <row r="108">
       <c r="A108" t="s" s="2">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" t="s" s="2">
@@ -13056,13 +13011,13 @@
         <v>83</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>367</v>
+        <v>352</v>
       </c>
       <c r="L108" t="s" s="2">
-        <v>368</v>
+        <v>353</v>
       </c>
       <c r="M108" s="2"/>
       <c r="N108" s="2"/>
@@ -13113,7 +13068,7 @@
         <v>74</v>
       </c>
       <c r="AE108" t="s" s="2">
-        <v>366</v>
+        <v>351</v>
       </c>
       <c r="AF108" t="s" s="2">
         <v>82</v>
@@ -13139,7 +13094,7 @@
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="B109" s="2"/>
       <c r="C109" t="s" s="2">
@@ -13165,10 +13120,10 @@
         <v>145</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>370</v>
+        <v>355</v>
       </c>
       <c r="L109" t="s" s="2">
-        <v>371</v>
+        <v>356</v>
       </c>
       <c r="M109" s="2"/>
       <c r="N109" s="2"/>
@@ -13219,7 +13174,7 @@
         <v>74</v>
       </c>
       <c r="AE109" t="s" s="2">
-        <v>369</v>
+        <v>354</v>
       </c>
       <c r="AF109" t="s" s="2">
         <v>72</v>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-03-21T12:30:51+00:00</t>
+    <t>2022-04-20T15:40:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-20T15:40:19+00:00</t>
+    <t>2022-04-21T09:31:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-21T09:31:27+00:00</t>
+    <t>2022-04-22T15:46:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T15:46:20+00:00</t>
+    <t>2022-04-22T16:02:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-22T16:02:12+00:00</t>
+    <t>2022-04-23T06:29:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-23T06:29:29+00:00</t>
+    <t>2022-04-24T15:59:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T15:59:48+00:00</t>
+    <t>2022-04-24T16:46:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T16:46:49+00:00</t>
+    <t>2022-04-24T16:56:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T16:56:32+00:00</t>
+    <t>2022-04-24T17:04:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T17:04:20+00:00</t>
+    <t>2022-04-24T17:58:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T17:58:11+00:00</t>
+    <t>2022-04-24T18:29:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T18:29:29+00:00</t>
+    <t>2022-04-24T18:34:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T18:34:57+00:00</t>
+    <t>2022-04-24T18:37:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-24T18:37:31+00:00</t>
+    <t>2022-04-25T21:02:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-25T21:02:51+00:00</t>
+    <t>2022-04-28T02:47:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-28T02:47:58+00:00</t>
+    <t>2022-04-29T16:37:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-04-29T16:37:30+00:00</t>
+    <t>2022-05-01T14:48:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T14:48:42+00:00</t>
+    <t>2022-05-01T15:28:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T15:28:00+00:00</t>
+    <t>2022-05-01T15:49:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-01T15:49:46+00:00</t>
+    <t>2022-05-04T10:49:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T10:49:28+00:00</t>
+    <t>2022-05-04T11:35:34+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-04T11:35:34+00:00</t>
+    <t>2022-05-29T13:16:26+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-29T13:16:26+00:00</t>
+    <t>2022-06-23T05:00:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-23T05:00:29+00:00</t>
+    <t>2022-06-29T00:50:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T00:50:05+00:00</t>
+    <t>2022-06-29T01:04:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:04:59+00:00</t>
+    <t>2022-06-29T01:14:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:14:41+00:00</t>
+    <t>2022-06-29T01:16:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:16:19+00:00</t>
+    <t>2022-06-29T01:17:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:17:29+00:00</t>
+    <t>2022-06-29T01:17:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:17:50+00:00</t>
+    <t>2022-06-29T01:22:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-29T01:22:39+00:00</t>
+    <t>2022-06-30T08:49:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-06-30T08:49:36+00:00</t>
+    <t>2022-07-03T14:34:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-03T14:34:33+00:00</t>
+    <t>2022-07-03T20:46:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-03T20:46:11+00:00</t>
+    <t>2022-07-03T23:30:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-03T23:30:51+00:00</t>
+    <t>2022-07-04T02:50:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T02:50:37+00:00</t>
+    <t>2022-07-04T03:38:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T03:38:46+00:00</t>
+    <t>2022-07-04T03:54:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T03:54:38+00:00</t>
+    <t>2022-07-04T04:08:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T04:08:16+00:00</t>
+    <t>2022-07-04T04:22:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T04:22:11+00:00</t>
+    <t>2022-07-04T04:38:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T04:38:42+00:00</t>
+    <t>2022-07-04T11:32:16+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T11:32:16+00:00</t>
+    <t>2022-07-04T15:16:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T15:16:30+00:00</t>
+    <t>2022-07-04T15:23:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T15:23:30+00:00</t>
+    <t>2022-07-04T19:18:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T19:18:20+00:00</t>
+    <t>2022-07-04T19:34:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T19:34:40+00:00</t>
+    <t>2022-07-04T19:42:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-04T19:42:20+00:00</t>
+    <t>2022-07-05T12:21:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T12:21:33+00:00</t>
+    <t>2022-07-05T15:17:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T15:17:01+00:00</t>
+    <t>2022-07-05T15:19:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T15:19:17+00:00</t>
+    <t>2022-07-05T15:30:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T15:30:33+00:00</t>
+    <t>2022-07-05T18:45:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:45:13+00:00</t>
+    <t>2022-07-05T18:55:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:55:08+00:00</t>
+    <t>2022-07-05T18:55:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:55:30+00:00</t>
+    <t>2022-07-05T18:56:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:56:38+00:00</t>
+    <t>2022-07-05T18:57:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T18:57:01+00:00</t>
+    <t>2022-07-05T19:10:35+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-05T19:10:35+00:00</t>
+    <t>2022-07-08T09:19:23+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T09:19:23+00:00</t>
+    <t>2022-07-08T09:27:24+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T09:27:24+00:00</t>
+    <t>2022-07-08T09:29:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-08T09:29:32+00:00</t>
+    <t>2022-07-09T13:36:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T13:36:28+00:00</t>
+    <t>2022-07-09T13:48:36+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T13:48:36+00:00</t>
+    <t>2022-07-09T14:07:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T14:07:10+00:00</t>
+    <t>2022-07-09T15:00:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T15:00:13+00:00</t>
+    <t>2022-07-09T15:12:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-09T15:12:02+00:00</t>
+    <t>2022-07-10T01:20:38+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-10T01:20:38+00:00</t>
+    <t>2022-07-10T01:52:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-10T01:52:20+00:00</t>
+    <t>2022-07-10T01:56:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-10T01:56:06+00:00</t>
+    <t>2022-07-11T16:11:05+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-11T16:11:05+00:00</t>
+    <t>2022-07-18T10:16:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1476,42 +1476,42 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="101.46484375" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.25" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="101.46875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="22.25390625" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="39.9140625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="6.7734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.77734375" customWidth="true" bestFit="true" hidden="true"/>
     <col min="5" max="5" width="4.9453125" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="5.4296875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="16.2734375" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="13.2578125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="14.44140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="16.27734375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="13.26171875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="14.4453125" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="15.265625" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="15.26953125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="17.16796875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="17.171875" customWidth="true" bestFit="true"/>
     <col min="21" max="21" width="17.65625" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="19.03125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="18.85546875" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="31.765625" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="31.76953125" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="63.78125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="22.71484375" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="42.03125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="17.2109375" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="17.21484375" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="14.4140625" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="101.46484375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="10.55078125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="11.03515625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="13.87109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="101.46875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="10.5546875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="11.0390625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="13.875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="100.640625" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="100.64453125" customWidth="true" bestFit="true"/>
     <col min="37" max="37" width="36.91796875" customWidth="true" bestFit="true"/>
     <col min="38" max="38" width="102.6171875" customWidth="true" bestFit="true"/>
   </cols>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-18T10:16:10+00:00</t>
+    <t>2022-08-04T10:24:58+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T10:24:58+00:00</t>
+    <t>2022-08-04T10:31:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T10:31:18+00:00</t>
+    <t>2022-08-08T10:51:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T10:51:00+00:00</t>
+    <t>2022-08-08T11:05:17+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T11:05:17+00:00</t>
+    <t>2022-08-08T11:11:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-08T11:11:55+00:00</t>
+    <t>2022-08-09T00:31:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T00:31:42+00:00</t>
+    <t>2022-08-09T00:49:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T00:49:42+00:00</t>
+    <t>2022-08-09T01:06:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-09T01:06:50+00:00</t>
+    <t>2022-08-20T17:56:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T17:56:01+00:00</t>
+    <t>2022-08-20T18:05:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T18:05:15+00:00</t>
+    <t>2022-08-20T18:51:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T18:51:18+00:00</t>
+    <t>2022-08-20T19:15:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T19:15:31+00:00</t>
+    <t>2022-08-20T20:17:00+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T20:17:00+00:00</t>
+    <t>2022-08-20T20:30:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T20:30:56+00:00</t>
+    <t>2022-08-20T20:40:03+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-20T20:40:03+00:00</t>
+    <t>2022-08-23T21:43:15+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-23T21:43:15+00:00</t>
+    <t>2022-08-25T03:29:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-25T03:29:49+00:00</t>
+    <t>2022-08-26T02:06:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -24,7 +24,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/AdministrableProductDefinition-uv-epi</t>
+    <t>http://hl7.org/fhir/uv/vulcan-epi/StructureDefinition/AdministrableProductDefinition-uv-epi</t>
   </si>
   <si>
     <t>Version</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-26T02:06:18+00:00</t>
+    <t>2022-08-29T07:02:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -571,7 +571,7 @@
     <t>http://www.acme.com/identifiers/patient</t>
   </si>
   <si>
-    <t>http://hl7.eu/fhir/ig/gravitate-health/ValueSet/admProductIdSystems</t>
+    <t>http://hl7.org/fhir/uv/vulcan-epi/ValueSet/admProductIdSystems</t>
   </si>
   <si>
     <t>Identifier.system</t>
@@ -663,7 +663,7 @@
     <t>AdministrableProductDefinition.formOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/MedicinalProductDefinition-uv-epi)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/vulcan-epi/StructureDefinition/MedicinalProductDefinition-uv-epi)
 </t>
   </si>
   <si>
@@ -721,7 +721,7 @@
     <t>AdministrableProductDefinition.producedFrom</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.eu/fhir/ig/gravitate-health/StructureDefinition/ManufacturedItemDefinition-uv-epi)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/uv/vulcan-epi/StructureDefinition/ManufacturedItemDefinition-uv-epi)
 </t>
   </si>
   <si>
@@ -1500,7 +1500,7 @@
     <col min="22" max="22" width="19.03515625" customWidth="true" bestFit="true"/>
     <col min="23" max="23" width="18.859375" customWidth="true" bestFit="true"/>
     <col min="24" max="24" width="31.76953125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="63.78125" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="59.828125" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="6.34765625" customWidth="true" bestFit="true"/>
     <col min="27" max="27" width="22.71875" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="42.03515625" customWidth="true" bestFit="true"/>

--- a/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
+++ b/StructureDefinition-AdministrableProductDefinition-uv-epi.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-29T07:02:49+00:00</t>
+    <t>2022-09-02T12:45:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
